--- a/all-eval-results.xlsx
+++ b/all-eval-results.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flacours\Documents\GitHub\eval-assignment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="17115" windowHeight="11250"/>
   </bookViews>
@@ -20,7 +15,7 @@
     <sheet name="q8" sheetId="5" r:id="rId6"/>
     <sheet name="q12" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -108,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,7 +692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,10 +724,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,7 +758,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -940,20 +933,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T122" sqref="T122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,11 +1008,11 @@
       <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1078,12 +1072,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1247,7 +1241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1288,7 +1282,7 @@
         <v>0.39038652611910402</v>
       </c>
       <c r="O7">
-        <v>-12.4723266782298</v>
+        <v>9.3712614240094503</v>
       </c>
       <c r="P7">
         <f t="shared" ref="P7:U7" si="1">SUM(J7:J11)/5</f>
@@ -1310,12 +1304,12 @@
         <f t="shared" si="1"/>
         <v>0.38739950341434104</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <f t="shared" si="1"/>
-        <v>-12.469821249119601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3804796207546168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1356,10 +1350,10 @@
         <v>0.38761728153070502</v>
       </c>
       <c r="O8">
-        <v>-12.467159895007301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3801470019286803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1400,10 +1394,10 @@
         <v>0.38613538260682301</v>
       </c>
       <c r="O9">
-        <v>-12.402731415653699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3914076831993398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1444,10 +1438,10 @@
         <v>0.38243864520391002</v>
       </c>
       <c r="O10">
-        <v>-12.4869916583107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3731494210138493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1488,10 +1482,10 @@
         <v>0.39041968161116303</v>
       </c>
       <c r="O11">
-        <v>-12.5198965983965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3864325736217697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1552,11 +1546,11 @@
       <c r="T12" t="s">
         <v>13</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1594,7 @@
         <v>0.267157460294209</v>
       </c>
       <c r="O13">
-        <v>-9.2449839036477606</v>
+        <v>8.99258548776635</v>
       </c>
       <c r="P13">
         <f t="shared" ref="P13" si="2">SUM(J13:J17)/5</f>
@@ -1622,12 +1616,12 @@
         <f t="shared" ref="T13" si="6">SUM(N13:N17)/5</f>
         <v>0.25787841980192361</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <f t="shared" ref="U13" si="7">SUM(O13:O17)/5</f>
-        <v>-9.2400544162283786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.011665754542431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1671,10 +1665,10 @@
         <v>0.26125607040182303</v>
       </c>
       <c r="O14">
-        <v>-9.2241289331159706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.9657101092098408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1718,10 +1712,10 @@
         <v>0.25132565539963098</v>
       </c>
       <c r="O15">
-        <v>-9.3087202094796897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0378450086083006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1765,10 +1759,10 @@
         <v>0.26134947012502502</v>
       </c>
       <c r="O16">
-        <v>-9.1934244516559893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0161834196169295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1812,10 +1806,10 @@
         <v>0.24830344278892999</v>
       </c>
       <c r="O17">
-        <v>-9.2290145832424706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0460047475107306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>0.257087282512725</v>
       </c>
       <c r="O18">
-        <v>-9.2203175206677397</v>
+        <v>8.9922400243259997</v>
       </c>
       <c r="P18">
         <f t="shared" ref="P18" si="8">SUM(J18:J22)/5</f>
@@ -1881,12 +1875,12 @@
         <f t="shared" ref="T18" si="12">SUM(N18:N22)/5</f>
         <v>0.25416475124998195</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <f t="shared" ref="U18" si="13">SUM(O18:O22)/5</f>
-        <v>-9.2382499999207148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0109969895585635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1930,10 +1924,10 @@
         <v>0.26024031722127999</v>
       </c>
       <c r="O19">
-        <v>-9.18566292085751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.9725758001326295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1977,10 +1971,10 @@
         <v>0.25070650709056502</v>
       </c>
       <c r="O20">
-        <v>-9.2724166262147403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0350997948692697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2024,10 +2018,10 @@
         <v>0.257640531166689</v>
       </c>
       <c r="O21">
-        <v>-9.2249001014293697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0207612186844397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2071,10 +2065,10 @@
         <v>0.24514911825865099</v>
       </c>
       <c r="O22">
-        <v>-9.2879528304342092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0343081097804792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2118,7 +2112,7 @@
         <v>0.26234977009395499</v>
       </c>
       <c r="O23">
-        <v>-9.2569612441012303</v>
+        <v>8.9995869113871301</v>
       </c>
       <c r="P23">
         <f t="shared" ref="P23" si="14">SUM(J23:J27)/5</f>
@@ -2140,12 +2134,12 @@
         <f t="shared" ref="T23" si="18">SUM(N23:N27)/5</f>
         <v>0.25877371355449325</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <f t="shared" ref="U23" si="19">SUM(O23:O27)/5</f>
-        <v>-9.2478500822921994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.018866212779125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2189,10 +2183,10 @@
         <v>0.25875203845794997</v>
       </c>
       <c r="O24">
-        <v>-9.1599202157124502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.9694225065415605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2236,10 +2230,10 @@
         <v>0.25591872318751302</v>
       </c>
       <c r="O25">
-        <v>-9.2368008406074207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0407959582282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2283,10 +2277,10 @@
         <v>0.26316770571024001</v>
       </c>
       <c r="O26">
-        <v>-9.2620008967353602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0325139497797196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2330,10 +2324,10 @@
         <v>0.25368033032280801</v>
       </c>
       <c r="O27">
-        <v>-9.3235672143045303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0520117379590097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2377,7 +2371,7 @@
         <v>0.26541936351728701</v>
       </c>
       <c r="O28">
-        <v>-9.3139738027654904</v>
+        <v>9.0109143551420896</v>
       </c>
       <c r="P28">
         <f t="shared" ref="P28" si="20">SUM(J28:J32)/5</f>
@@ -2399,12 +2393,12 @@
         <f t="shared" ref="T28" si="24">SUM(N28:N32)/5</f>
         <v>0.25802795804460954</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <f t="shared" ref="U28" si="25">SUM(O28:O32)/5</f>
-        <v>-9.336985993595345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0346592377277837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2448,10 +2442,10 @@
         <v>0.25437636427058902</v>
       </c>
       <c r="O29">
-        <v>-9.2351301163292998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8.9883345106369106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2495,10 +2489,10 @@
         <v>0.25629298041655102</v>
       </c>
       <c r="O30">
-        <v>-9.3068399729536804</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.05370919054082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2542,10 +2536,10 @@
         <v>0.25759646729657698</v>
       </c>
       <c r="O31">
-        <v>-9.3359887336255198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0462691692614907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2589,10 +2583,10 @@
         <v>0.25645461472204401</v>
       </c>
       <c r="O32">
-        <v>-9.4929973423027398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0740689630576004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2636,7 +2630,7 @@
         <v>0.27227379801192902</v>
       </c>
       <c r="O33">
-        <v>-9.5217863421705395</v>
+        <v>9.0384123709022504</v>
       </c>
       <c r="P33">
         <f t="shared" ref="P33" si="26">SUM(J33:J37)/5</f>
@@ -2658,12 +2652,12 @@
         <f t="shared" ref="T33" si="30">SUM(N33:N37)/5</f>
         <v>0.2657467345087382</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="1">
         <f t="shared" ref="U33" si="31">SUM(O33:O37)/5</f>
-        <v>-9.455053977929321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0548011045308368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2707,10 +2701,10 @@
         <v>0.26329280375132502</v>
       </c>
       <c r="O34">
-        <v>-9.3268568931403895</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0071923443248103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2754,10 +2748,10 @@
         <v>0.26631927269807998</v>
       </c>
       <c r="O35">
-        <v>-9.3776052776837808</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0709045884952992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2801,10 +2795,10 @@
         <v>0.26610187293626503</v>
       </c>
       <c r="O36">
-        <v>-9.4567384749542498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0687997859799303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2848,10 +2842,10 @@
         <v>0.26074592514609202</v>
       </c>
       <c r="O37">
-        <v>-9.5922829016976401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0886964329519007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2895,7 +2889,7 @@
         <v>0.27873529180382201</v>
       </c>
       <c r="O38">
-        <v>-9.5910320433478606</v>
+        <v>9.0587330057229103</v>
       </c>
       <c r="P38">
         <f t="shared" ref="P38" si="32">SUM(J38:J42)/5</f>
@@ -2917,12 +2911,12 @@
         <f t="shared" ref="T38" si="36">SUM(N38:N42)/5</f>
         <v>0.27226484905479165</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1">
         <f t="shared" ref="U38" si="37">SUM(O38:O42)/5</f>
-        <v>-9.615354203556203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0751398328662525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2966,10 +2960,10 @@
         <v>0.27075277999771502</v>
       </c>
       <c r="O39">
-        <v>-9.4978569576522993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.02238895309182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -3013,10 +3007,10 @@
         <v>0.272567338991137</v>
       </c>
       <c r="O40">
-        <v>-9.5360815349740307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0873425999318798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -3060,10 +3054,10 @@
         <v>0.27187715941816099</v>
       </c>
       <c r="O41">
-        <v>-9.6852290673261692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0925844633792394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -3107,10 +3101,10 @@
         <v>0.267391675063123</v>
       </c>
       <c r="O42">
-        <v>-9.7665714144806497</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.11465014220542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -3154,7 +3148,7 @@
         <v>0.28626869030683899</v>
       </c>
       <c r="O43">
-        <v>-10.0343390838998</v>
+        <v>9.0879351711025897</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="38">SUM(J43:J47)/5</f>
@@ -3176,12 +3170,12 @@
         <f t="shared" ref="T43" si="42">SUM(N43:N47)/5</f>
         <v>0.28859534925313818</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="1">
         <f t="shared" ref="U43" si="43">SUM(O43:O47)/5</f>
-        <v>-9.9101407817966916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1048574630597408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -3225,10 +3219,10 @@
         <v>0.28741813437425201</v>
       </c>
       <c r="O44">
-        <v>-9.7903754734309008</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0579106635151003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -3272,10 +3266,10 @@
         <v>0.29337530610903401</v>
       </c>
       <c r="O45">
-        <v>-9.7882046714409103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1186988556984492</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3319,10 +3313,10 @@
         <v>0.29035700777170798</v>
       </c>
       <c r="O46">
-        <v>-9.85746458906325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1126790252634393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -3366,10 +3360,10 @@
         <v>0.28555760770385802</v>
       </c>
       <c r="O47">
-        <v>-10.0803200911486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1470635997191305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -3413,7 +3407,7 @@
         <v>0.31146852435869199</v>
       </c>
       <c r="O48">
-        <v>-10.159610400095101</v>
+        <v>9.1026339182318292</v>
       </c>
       <c r="P48">
         <f t="shared" ref="P48" si="44">SUM(J48:J52)/5</f>
@@ -3435,12 +3429,12 @@
         <f t="shared" ref="T48" si="48">SUM(N48:N52)/5</f>
         <v>0.30872641517295374</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="1">
         <f t="shared" ref="U48" si="49">SUM(O48:O52)/5</f>
-        <v>-10.02432521990217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1136728366375532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -3484,10 +3478,10 @@
         <v>0.30207847936390902</v>
       </c>
       <c r="O49">
-        <v>-9.8371043647115695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0612470455640999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -3531,10 +3525,10 @@
         <v>0.31415365386009803</v>
       </c>
       <c r="O50">
-        <v>-9.9266808723779807</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1256271893023992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -3578,10 +3572,10 @@
         <v>0.31180246513288201</v>
       </c>
       <c r="O51">
-        <v>-10.028771692946799</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1283681195616104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -3625,10 +3619,10 @@
         <v>0.30412895314918797</v>
       </c>
       <c r="O52">
-        <v>-10.1694587693794</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1504879105278292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3672,7 +3666,7 @@
         <v>0.35656901838504301</v>
       </c>
       <c r="O53">
-        <v>-10.2287744642656</v>
+        <v>9.1002096917079101</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="50">SUM(J53:J57)/5</f>
@@ -3694,12 +3688,12 @@
         <f t="shared" ref="T53" si="54">SUM(N53:N57)/5</f>
         <v>0.35019662145961722</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="1">
         <f t="shared" ref="U53" si="55">SUM(O53:O57)/5</f>
-        <v>-10.114950236871247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1121447004417693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3743,10 +3737,10 @@
         <v>0.34064347140228601</v>
       </c>
       <c r="O54">
-        <v>-9.9519349134392296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0594988881413094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3790,10 +3784,10 @@
         <v>0.35827721023511799</v>
       </c>
       <c r="O55">
-        <v>-10.064635225964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1290192559761199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -3837,10 +3831,10 @@
         <v>0.354250188330965</v>
       </c>
       <c r="O56">
-        <v>-10.138070178261501</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1260284027924694</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3884,10 +3878,10 @@
         <v>0.34124321894467402</v>
       </c>
       <c r="O57">
-        <v>-10.1913364024259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1459672635910305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -3931,7 +3925,7 @@
         <v>0.36427919338077702</v>
       </c>
       <c r="O58">
-        <v>-10.2289250401601</v>
+        <v>9.0997197306801905</v>
       </c>
       <c r="P58">
         <f t="shared" ref="P58" si="56">SUM(J58:J62)/5</f>
@@ -3953,12 +3947,12 @@
         <f t="shared" ref="T58" si="60">SUM(N58:N62)/5</f>
         <v>0.35825666945614676</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="1">
         <f t="shared" ref="U58" si="61">SUM(O58:O62)/5</f>
-        <v>-10.114562533988561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1125308589712226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -4002,10 +3996,10 @@
         <v>0.35105104606578003</v>
       </c>
       <c r="O59">
-        <v>-9.9603178539176103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.0610583576104595</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4049,10 +4043,10 @@
         <v>0.36198453906609701</v>
       </c>
       <c r="O60">
-        <v>-10.054843531343501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1299782467825299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -4096,10 +4090,10 @@
         <v>0.362721098328946</v>
       </c>
       <c r="O61">
-        <v>-10.134844324435701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1254784785051299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -4143,10 +4137,10 @@
         <v>0.35124747043913401</v>
       </c>
       <c r="O62">
-        <v>-10.1938819200859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1464194812778103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4193,7 +4187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -4237,7 +4231,7 @@
         <v>0.33861049622905198</v>
       </c>
       <c r="O65">
-        <v>-11.418461931006901</v>
+        <v>9.2454401489236098</v>
       </c>
       <c r="P65">
         <f t="shared" ref="P65" si="62">SUM(J65:J69)/5</f>
@@ -4259,12 +4253,12 @@
         <f t="shared" ref="T65" si="66">SUM(N65:N69)/5</f>
         <v>0.33618057562550696</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="1">
         <f t="shared" ref="U65" si="67">SUM(O65:O69)/5</f>
-        <v>-11.455316727972379</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2664186690400623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -4308,10 +4302,10 @@
         <v>0.33900430884513999</v>
       </c>
       <c r="O66">
-        <v>-11.375441456270501</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2158279309530897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -4355,10 +4349,10 @@
         <v>0.33505460693496902</v>
       </c>
       <c r="O67">
-        <v>-11.5110016874215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2900844831372602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -4402,10 +4396,10 @@
         <v>0.33576229940883301</v>
       </c>
       <c r="O68">
-        <v>-11.4572595406324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2784553558572291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -4449,10 +4443,10 @@
         <v>0.33247116670954102</v>
       </c>
       <c r="O69">
-        <v>-11.5144190245306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3022854263291297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -4496,7 +4490,7 @@
         <v>0.34317330897564202</v>
       </c>
       <c r="O70">
-        <v>-11.7125964088287</v>
+        <v>9.2630008584678407</v>
       </c>
       <c r="P70">
         <f t="shared" ref="P70" si="68">SUM(J70:J74)/5</f>
@@ -4518,12 +4512,12 @@
         <f t="shared" ref="T70" si="72">SUM(N70:N74)/5</f>
         <v>0.34533882200995564</v>
       </c>
-      <c r="U70">
+      <c r="U70" s="1">
         <f t="shared" ref="U70" si="73">SUM(O70:O74)/5</f>
-        <v>-11.765559193508462</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2863551986215693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -4567,10 +4561,10 @@
         <v>0.34749985349401102</v>
       </c>
       <c r="O71">
-        <v>-11.684228976103601</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2401288556307701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -4614,10 +4608,10 @@
         <v>0.34588160385113398</v>
       </c>
       <c r="O72">
-        <v>-11.769926279760901</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3093532421020893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -4661,10 +4655,10 @@
         <v>0.34403670535811098</v>
       </c>
       <c r="O73">
-        <v>-11.774530693310201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3000007480949698</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -4708,10 +4702,10 @@
         <v>0.34610263837088001</v>
       </c>
       <c r="O74">
-        <v>-11.8865136095389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3192922888121803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -4755,7 +4749,7 @@
         <v>0.35101360512756702</v>
       </c>
       <c r="O75">
-        <v>-11.895931689620101</v>
+        <v>9.2682573263556502</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="74">SUM(J75:J79)/5</f>
@@ -4777,12 +4771,12 @@
         <f t="shared" ref="T75" si="78">SUM(N75:N79)/5</f>
         <v>0.35289503461518601</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="1">
         <f t="shared" ref="U75" si="79">SUM(O75:O79)/5</f>
-        <v>-11.910938813450839</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2935572275007878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -4826,10 +4820,10 @@
         <v>0.35655066694722198</v>
       </c>
       <c r="O76">
-        <v>-11.8098018135736</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2456872679436302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -4873,10 +4867,10 @@
         <v>0.35175047794492698</v>
       </c>
       <c r="O77">
-        <v>-11.9200218798374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3172971754311398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -4920,10 +4914,10 @@
         <v>0.35108301244501799</v>
       </c>
       <c r="O78">
-        <v>-11.926253233891501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3066715214768401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -4967,10 +4961,10 @@
         <v>0.35407741061119602</v>
       </c>
       <c r="O79">
-        <v>-12.002685450331599</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.32987284629667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -5014,7 +5008,7 @@
         <v>0.35814917019244802</v>
       </c>
       <c r="O80">
-        <v>-11.948196557534301</v>
+        <v>9.2722895495276099</v>
       </c>
       <c r="P80">
         <f t="shared" ref="P80" si="80">SUM(J80:J84)/5</f>
@@ -5036,12 +5030,12 @@
         <f t="shared" ref="T80" si="84">SUM(N80:N84)/5</f>
         <v>0.35590527911113801</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="1">
         <f t="shared" ref="U80" si="85">SUM(O80:O84)/5</f>
-        <v>-11.977658632864621</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2976230738923729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -5085,10 +5079,10 @@
         <v>0.35834332713441802</v>
       </c>
       <c r="O81">
-        <v>-11.8889206262103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2499817737947101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -5132,10 +5126,10 @@
         <v>0.35137484750703002</v>
       </c>
       <c r="O82">
-        <v>-11.9597090747591</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3180081520933999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -5179,10 +5173,10 @@
         <v>0.352348992480359</v>
       </c>
       <c r="O83">
-        <v>-11.956993356566599</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.30946897686486</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -5226,10 +5220,10 @@
         <v>0.35931005824143503</v>
       </c>
       <c r="O84">
-        <v>-12.1344735492528</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3383669171812898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -5273,7 +5267,7 @@
         <v>0.36464835410687102</v>
       </c>
       <c r="O85">
-        <v>-12.011713876901601</v>
+        <v>9.2745895672515104</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="86">SUM(J85:J89)/5</f>
@@ -5295,12 +5289,12 @@
         <f t="shared" ref="T85" si="90">SUM(N85:N89)/5</f>
         <v>0.36333481613271779</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="1">
         <f t="shared" ref="U85" si="91">SUM(O85:O89)/5</f>
-        <v>-12.02054528714892</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2978295964155713</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -5344,10 +5338,10 @@
         <v>0.36176741407955398</v>
       </c>
       <c r="O86">
-        <v>-11.899468667077601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2465063588492704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -5391,10 +5385,10 @@
         <v>0.363615997638782</v>
       </c>
       <c r="O87">
-        <v>-11.9957981583009</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3172686104527696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -5438,10 +5432,10 @@
         <v>0.36164322195987098</v>
       </c>
       <c r="O88">
-        <v>-12.0112577642197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3084726780243194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -5485,10 +5479,10 @@
         <v>0.36499909287851101</v>
       </c>
       <c r="O89">
-        <v>-12.184487969244801</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3423107674999901</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -5532,7 +5526,7 @@
         <v>0.36765309801832902</v>
       </c>
       <c r="O90">
-        <v>-12.020684182997799</v>
+        <v>9.2745882844748007</v>
       </c>
       <c r="P90">
         <f t="shared" ref="P90" si="92">SUM(J90:J94)/5</f>
@@ -5554,12 +5548,12 @@
         <f t="shared" ref="T90" si="96">SUM(N90:N94)/5</f>
         <v>0.36837604747764841</v>
       </c>
-      <c r="U90">
+      <c r="U90" s="1">
         <f t="shared" ref="U90" si="97">SUM(O90:O94)/5</f>
-        <v>-12.065520239116818</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2983991396918206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -5603,10 +5597,10 @@
         <v>0.370285337113266</v>
       </c>
       <c r="O91">
-        <v>-11.9462780197676</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2450181690139495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -5650,10 +5644,10 @@
         <v>0.371409739765103</v>
       </c>
       <c r="O92">
-        <v>-12.0238153057165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3184398254817093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -5697,10 +5691,10 @@
         <v>0.36515191097547001</v>
       </c>
       <c r="O93">
-        <v>-12.1014617833325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3101054970935309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -5744,10 +5738,10 @@
         <v>0.367380151516074</v>
       </c>
       <c r="O94">
-        <v>-12.2353619037697</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.34384392239512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -5791,7 +5785,7 @@
         <v>0.37686324723011799</v>
       </c>
       <c r="O95">
-        <v>-12.0923941113127</v>
+        <v>9.2734587303846894</v>
       </c>
       <c r="P95">
         <f t="shared" ref="P95" si="98">SUM(J95:J99)/5</f>
@@ -5813,12 +5807,12 @@
         <f t="shared" ref="T95" si="102">SUM(N95:N99)/5</f>
         <v>0.3801829976316432</v>
       </c>
-      <c r="U95">
+      <c r="U95" s="1">
         <f t="shared" ref="U95" si="103">SUM(O95:O99)/5</f>
-        <v>-12.125508908770922</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2968596532411372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -5862,10 +5856,10 @@
         <v>0.38131248708314802</v>
       </c>
       <c r="O96">
-        <v>-11.9928568856038</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2450304508689705</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -5909,10 +5903,10 @@
         <v>0.38289908667150102</v>
       </c>
       <c r="O97">
-        <v>-12.058279572427599</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.31444234658907</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -5956,10 +5950,10 @@
         <v>0.37746964140482497</v>
       </c>
       <c r="O98">
-        <v>-12.161199070349801</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3074276279273001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -6003,10 +5997,10 @@
         <v>0.38237052576862401</v>
       </c>
       <c r="O99">
-        <v>-12.322814904160699</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3439391104356595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -6050,7 +6044,7 @@
         <v>0.39297731594607899</v>
       </c>
       <c r="O100">
-        <v>-12.117835842733699</v>
+        <v>9.2701879667224496</v>
       </c>
       <c r="P100">
         <f t="shared" ref="P100" si="104">SUM(J100:J104)/5</f>
@@ -6072,12 +6066,12 @@
         <f t="shared" ref="T100" si="108">SUM(N100:N104)/5</f>
         <v>0.39232742119548342</v>
       </c>
-      <c r="U100">
+      <c r="U100" s="1">
         <f t="shared" ref="U100" si="109">SUM(O100:O104)/5</f>
-        <v>-12.11608745231082</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2937631852057709</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -6121,10 +6115,10 @@
         <v>0.38683069003465798</v>
       </c>
       <c r="O101">
-        <v>-11.9843269931732</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2426336393105792</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -6168,10 +6162,10 @@
         <v>0.39525518947254701</v>
       </c>
       <c r="O102">
-        <v>-12.0408777638069</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3124811557849601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -6215,10 +6209,10 @@
         <v>0.39163224260558999</v>
       </c>
       <c r="O103">
-        <v>-12.148880880498799</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3062598787265802</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -6262,10 +6256,10 @@
         <v>0.39494166791854302</v>
       </c>
       <c r="O104">
-        <v>-12.2885157813415</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3372532854842891</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -6309,7 +6303,7 @@
         <v>0.41519261616487901</v>
       </c>
       <c r="O105">
-        <v>-12.0745900994695</v>
+        <v>9.26909504446275</v>
       </c>
       <c r="P105">
         <f t="shared" ref="P105" si="110">SUM(J105:J109)/5</f>
@@ -6331,12 +6325,12 @@
         <f t="shared" ref="T105" si="114">SUM(N105:N109)/5</f>
         <v>0.41290654544569999</v>
       </c>
-      <c r="U105">
+      <c r="U105" s="1">
         <f t="shared" ref="U105" si="115">SUM(O105:O109)/5</f>
-        <v>-12.068617857032921</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2901649019497441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -6380,10 +6374,10 @@
         <v>0.40534490813637802</v>
       </c>
       <c r="O106">
-        <v>-11.942354898594401</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.23597462796522</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -6427,10 +6421,10 @@
         <v>0.41666294753004401</v>
       </c>
       <c r="O107">
-        <v>-12.024477595483001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3088506546777108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -6474,10 +6468,10 @@
         <v>0.41262733611951102</v>
       </c>
       <c r="O108">
-        <v>-12.088133796455301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3030975210973601</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -6521,10 +6515,10 @@
         <v>0.41470491927768799</v>
       </c>
       <c r="O109">
-        <v>-12.2135328951624</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3338066615456707</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
         <v>22</v>
       </c>
@@ -6568,7 +6562,7 @@
         <v>0.41898608292208001</v>
       </c>
       <c r="O110">
-        <v>-12.075754476715399</v>
+        <v>9.2689288712981401</v>
       </c>
       <c r="P110">
         <f t="shared" ref="P110" si="116">SUM(J110:J114)/5</f>
@@ -6590,12 +6584,12 @@
         <f t="shared" ref="T110" si="120">SUM(N110:N114)/5</f>
         <v>0.41743746482149541</v>
       </c>
-      <c r="U110">
+      <c r="U110" s="1">
         <f t="shared" ref="U110" si="121">SUM(O110:O114)/5</f>
-        <v>-12.0653525521959</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2901404895853421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -6639,10 +6633,10 @@
         <v>0.41090564077083902</v>
       </c>
       <c r="O111">
-        <v>-11.938552663550199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2358046299760908</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -6686,10 +6680,10 @@
         <v>0.41950807063451201</v>
       </c>
       <c r="O112">
-        <v>-12.0231028766378</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3095749431793493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -6733,10 +6727,10 @@
         <v>0.41679769296220798</v>
       </c>
       <c r="O113">
-        <v>-12.0847821511075</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3030853739646595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -6780,10 +6774,10 @@
         <v>0.42098983681783803</v>
       </c>
       <c r="O114">
-        <v>-12.204570592968601</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3333086295084708</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -6824,7 +6818,7 @@
         <v>0.39038652611910402</v>
       </c>
       <c r="O116">
-        <v>-12.4723266782298</v>
+        <v>9.3712614240094503</v>
       </c>
       <c r="P116">
         <f t="shared" ref="P116" si="122">SUM(J116:J120)/5</f>
@@ -6846,12 +6840,12 @@
         <f t="shared" ref="T116" si="126">SUM(N116:N120)/5</f>
         <v>0.38739950341434104</v>
       </c>
-      <c r="U116">
+      <c r="U116" s="1">
         <f t="shared" ref="U116" si="127">SUM(O116:O120)/5</f>
-        <v>-12.469821249119601</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3804796207546168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -6892,10 +6886,10 @@
         <v>0.38761728153070502</v>
       </c>
       <c r="O117">
-        <v>-12.467159895007301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3801470019286803</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -6936,10 +6930,10 @@
         <v>0.38613538260682301</v>
       </c>
       <c r="O118">
-        <v>-12.402731415653699</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3914076831993398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -6980,10 +6974,10 @@
         <v>0.38243864520391002</v>
       </c>
       <c r="O119">
-        <v>-12.4869916583107</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3731494210138493</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -7024,10 +7018,10 @@
         <v>0.39041968161116303</v>
       </c>
       <c r="O120">
-        <v>-12.5198965983965</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3864325736217697</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -7056,7 +7050,7 @@
         <v>0.478929307522304</v>
       </c>
       <c r="O122">
-        <v>-9.7480511310213593</v>
+        <v>9.1516706425097194</v>
       </c>
       <c r="P122">
         <f t="shared" ref="P122" si="128">SUM(J122:J126)/5</f>
@@ -7078,12 +7072,12 @@
         <f t="shared" ref="T122" si="132">SUM(N122:N126)/5</f>
         <v>0.47447957366984861</v>
       </c>
-      <c r="U122">
+      <c r="U122" s="1">
         <f t="shared" ref="U122" si="133">SUM(O122:O126)/5</f>
-        <v>-9.7474267896465712</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1585903041686372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -7112,10 +7106,10 @@
         <v>0.477489882531691</v>
       </c>
       <c r="O123">
-        <v>-9.7702550051260193</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1617295204633091</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -7144,10 +7138,10 @@
         <v>0.462506618251666</v>
       </c>
       <c r="O124">
-        <v>-9.6845272733858003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1611578861599892</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -7176,10 +7170,10 @@
         <v>0.47442734617834098</v>
       </c>
       <c r="O125">
-        <v>-9.76903803847825</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1525360648639005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -7208,10 +7202,10 @@
         <v>0.479044713865241</v>
       </c>
       <c r="O126">
-        <v>-9.7652625002214304</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1658574068462695</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -7258,7 +7252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -7302,7 +7296,7 @@
         <v>0.33173715703732198</v>
       </c>
       <c r="O129">
-        <v>-11.400566519471001</v>
+        <v>9.2209580457502298</v>
       </c>
       <c r="P129">
         <f t="shared" ref="P129" si="134">SUM(J129:J133)/5</f>
@@ -7324,12 +7318,12 @@
         <f t="shared" ref="T129" si="138">SUM(N129:N133)/5</f>
         <v>0.3281685695434946</v>
       </c>
-      <c r="U129">
+      <c r="U129" s="1">
         <f t="shared" ref="U129" si="139">SUM(O129:O133)/5</f>
-        <v>-11.433498716437979</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2436662203118551</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -7373,10 +7367,10 @@
         <v>0.32642143008427499</v>
       </c>
       <c r="O130">
-        <v>-11.3990591697093</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1960809232047591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -7420,10 +7414,10 @@
         <v>0.32770372231697298</v>
       </c>
       <c r="O131">
-        <v>-11.362959164307201</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2761049841068903</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -7467,10 +7461,10 @@
         <v>0.32707548589993002</v>
       </c>
       <c r="O132">
-        <v>-11.4222522392317</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2479994410175106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -7514,10 +7508,10 @@
         <v>0.32790505237897299</v>
       </c>
       <c r="O133">
-        <v>-11.5826564894707</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2771877074798894</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -7561,7 +7555,7 @@
         <v>0.35064032357974201</v>
       </c>
       <c r="O134">
-        <v>-11.8928304900396</v>
+        <v>9.2546335961620905</v>
       </c>
       <c r="P134">
         <f t="shared" ref="P134" si="140">SUM(J134:J138)/5</f>
@@ -7583,12 +7577,12 @@
         <f t="shared" ref="T134" si="144">SUM(N134:N138)/5</f>
         <v>0.349016406358577</v>
       </c>
-      <c r="U134">
+      <c r="U134" s="1">
         <f t="shared" ref="U134" si="145">SUM(O134:O138)/5</f>
-        <v>-11.915106442010341</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2760373067085879</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -7632,10 +7626,10 @@
         <v>0.34453436389576098</v>
       </c>
       <c r="O135">
-        <v>-11.8505855833842</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.22428260063481</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -7679,10 +7673,10 @@
         <v>0.35073117987066799</v>
       </c>
       <c r="O136">
-        <v>-11.850358617636401</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3077522845079095</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -7726,10 +7720,10 @@
         <v>0.34944131351544699</v>
       </c>
       <c r="O137">
-        <v>-11.9693678531673</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2832305848600107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -7773,10 +7767,10 @@
         <v>0.34973485093126699</v>
       </c>
       <c r="O138">
-        <v>-12.0123896658242</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3102874673781209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -7820,7 +7814,7 @@
         <v>0.36107569716292298</v>
       </c>
       <c r="O139">
-        <v>-12.097000226872</v>
+        <v>9.2647373050141404</v>
       </c>
       <c r="P139">
         <f t="shared" ref="P139" si="146">SUM(J139:J143)/5</f>
@@ -7842,12 +7836,12 @@
         <f t="shared" ref="T139" si="150">SUM(N139:N143)/5</f>
         <v>0.35563373455191977</v>
       </c>
-      <c r="U139">
+      <c r="U139" s="1">
         <f t="shared" ref="U139" si="151">SUM(O139:O143)/5</f>
-        <v>-12.137763458843461</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2896442444260714</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -7891,10 +7885,10 @@
         <v>0.34744245441434402</v>
       </c>
       <c r="O140">
-        <v>-12.102858858901801</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2405622499016502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -7938,10 +7932,10 @@
         <v>0.35773358959031398</v>
       </c>
       <c r="O141">
-        <v>-12.0584695407561</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3208212094912408</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -7985,10 +7979,10 @@
         <v>0.35618756877396801</v>
       </c>
       <c r="O142">
-        <v>-12.189730165500899</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2978967005539701</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -8032,10 +8026,10 @@
         <v>0.35572936281805001</v>
       </c>
       <c r="O143">
-        <v>-12.2407585021865</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3242037571693608</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -8079,7 +8073,7 @@
         <v>0.36685035979756903</v>
       </c>
       <c r="O144">
-        <v>-12.2174882386626</v>
+        <v>9.2695378813396303</v>
       </c>
       <c r="P144">
         <f t="shared" ref="P144" si="152">SUM(J144:J148)/5</f>
@@ -8101,12 +8095,12 @@
         <f t="shared" ref="T144" si="156">SUM(N144:N148)/5</f>
         <v>0.36294301911263782</v>
       </c>
-      <c r="U144">
+      <c r="U144" s="1">
         <f t="shared" ref="U144" si="157">SUM(O144:O148)/5</f>
-        <v>-12.280822529620179</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2972050027621069</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -8150,10 +8144,10 @@
         <v>0.35840331291441802</v>
       </c>
       <c r="O145">
-        <v>-12.2081684584937</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2467865417435</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -8197,10 +8191,10 @@
         <v>0.36794082046585502</v>
       </c>
       <c r="O146">
-        <v>-12.258056272650601</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.33170244428125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -8244,10 +8238,10 @@
         <v>0.361351813355822</v>
       </c>
       <c r="O147">
-        <v>-12.309055107313799</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3066121076392694</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -8291,10 +8285,10 @@
         <v>0.36016878902952498</v>
       </c>
       <c r="O148">
-        <v>-12.4113445709802</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3313860388068797</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -8338,7 +8332,7 @@
         <v>0.37199947275588002</v>
       </c>
       <c r="O149">
-        <v>-12.3435110206501</v>
+        <v>9.2782977699157794</v>
       </c>
       <c r="P149">
         <f t="shared" ref="P149" si="158">SUM(J149:J153)/5</f>
@@ -8360,12 +8354,12 @@
         <f t="shared" ref="T149" si="162">SUM(N149:N153)/5</f>
         <v>0.36970649141254758</v>
       </c>
-      <c r="U149">
+      <c r="U149" s="1">
         <f t="shared" ref="U149" si="163">SUM(O149:O153)/5</f>
-        <v>-12.37357111986686</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3032473505000901</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -8409,10 +8403,10 @@
         <v>0.36488142874934698</v>
       </c>
       <c r="O150">
-        <v>-12.290344974853801</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2513381672812702</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -8456,10 +8450,10 @@
         <v>0.37605385788004397</v>
       </c>
       <c r="O151">
-        <v>-12.335354293153699</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.33311806625405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -8503,10 +8497,10 @@
         <v>0.368962052149794</v>
       </c>
       <c r="O152">
-        <v>-12.387471845847299</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3119646981118898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -8550,10 +8544,10 @@
         <v>0.36663564552767303</v>
       </c>
       <c r="O153">
-        <v>-12.511173464829399</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3415180509374593</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -8597,7 +8591,7 @@
         <v>0.37665649408475799</v>
       </c>
       <c r="O154">
-        <v>-12.390631955265899</v>
+        <v>9.2816669383347996</v>
       </c>
       <c r="P154">
         <f t="shared" ref="P154" si="164">SUM(J154:J158)/5</f>
@@ -8619,12 +8613,12 @@
         <f t="shared" ref="T154" si="168">SUM(N154:N158)/5</f>
         <v>0.37382438911732518</v>
       </c>
-      <c r="U154">
+      <c r="U154" s="1">
         <f t="shared" ref="U154" si="169">SUM(O154:O158)/5</f>
-        <v>-12.428639307362221</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3060777289464411</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -8668,10 +8662,10 @@
         <v>0.36581024463143702</v>
       </c>
       <c r="O155">
-        <v>-12.3813159717554</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.25530685303392</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -8715,10 +8709,10 @@
         <v>0.37675868589885603</v>
       </c>
       <c r="O156">
-        <v>-12.3742208152616</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3351336841115593</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -8762,10 +8756,10 @@
         <v>0.37668049309460599</v>
       </c>
       <c r="O157">
-        <v>-12.440088704347801</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3164414049850794</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -8809,10 +8803,10 @@
         <v>0.373216027876969</v>
       </c>
       <c r="O158">
-        <v>-12.5569390901804</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3418397642668491</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -8856,7 +8850,7 @@
         <v>0.38118952808352202</v>
       </c>
       <c r="O159">
-        <v>-12.474356814594399</v>
+        <v>9.2826506130919508</v>
       </c>
       <c r="P159">
         <f t="shared" ref="P159" si="170">SUM(J159:J163)/5</f>
@@ -8878,12 +8872,12 @@
         <f t="shared" ref="T159" si="174">SUM(N159:N163)/5</f>
         <v>0.37905366071162278</v>
       </c>
-      <c r="U159">
+      <c r="U159" s="1">
         <f t="shared" ref="U159" si="175">SUM(O159:O163)/5</f>
-        <v>-12.4918413976918</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3083597390072335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -8927,10 +8921,10 @@
         <v>0.37347853571981898</v>
       </c>
       <c r="O160">
-        <v>-12.424139182648901</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2582922094929501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -8974,10 +8968,10 @@
         <v>0.38135540636669402</v>
       </c>
       <c r="O161">
-        <v>-12.462831093269401</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3377809190156196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -9021,10 +9015,10 @@
         <v>0.38028267384404302</v>
       </c>
       <c r="O162">
-        <v>-12.490755320200501</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3170985298420899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -9068,10 +9062,10 @@
         <v>0.378962159544036</v>
       </c>
       <c r="O163">
-        <v>-12.6071245777458</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3459764235935499</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -9115,7 +9109,7 @@
         <v>0.38693997860335599</v>
       </c>
       <c r="O164">
-        <v>-12.5151824542715</v>
+        <v>9.2850727903405694</v>
       </c>
       <c r="P164">
         <f t="shared" ref="P164" si="176">SUM(J164:J168)/5</f>
@@ -9137,12 +9131,12 @@
         <f t="shared" ref="T164" si="180">SUM(N164:N168)/5</f>
         <v>0.38339749717853422</v>
       </c>
-      <c r="U164">
+      <c r="U164" s="1">
         <f t="shared" ref="U164" si="181">SUM(O164:O168)/5</f>
-        <v>-12.519272488441921</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3101004396384575</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" t="s">
         <v>24</v>
       </c>
@@ -9186,10 +9180,10 @@
         <v>0.37450890260701403</v>
       </c>
       <c r="O165">
-        <v>-12.432744021596699</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2581972070179397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -9233,10 +9227,10 @@
         <v>0.38667418470390702</v>
       </c>
       <c r="O166">
-        <v>-12.492069525808899</v>
-      </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3407173146686109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -9280,10 +9274,10 @@
         <v>0.38348987651085797</v>
       </c>
       <c r="O167">
-        <v>-12.5222242325362</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3191975132827203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -9327,10 +9321,10 @@
         <v>0.38537454346753602</v>
       </c>
       <c r="O168">
-        <v>-12.6341422079963</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3473173728824595</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -9374,7 +9368,7 @@
         <v>0.39537538840794201</v>
       </c>
       <c r="O169">
-        <v>-12.569011782919601</v>
+        <v>9.2884853535021694</v>
       </c>
       <c r="P169">
         <f t="shared" ref="P169" si="182">SUM(J169:J173)/5</f>
@@ -9396,12 +9390,12 @@
         <f t="shared" ref="T169" si="186">SUM(N169:N173)/5</f>
         <v>0.390104570164089</v>
       </c>
-      <c r="U169">
+      <c r="U169" s="1">
         <f t="shared" ref="U169" si="187">SUM(O169:O173)/5</f>
-        <v>-12.5744302136826</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3140286301478223</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -9445,10 +9439,10 @@
         <v>0.38195579689918202</v>
       </c>
       <c r="O170">
-        <v>-12.469142371815501</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2626027609759607</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -9492,10 +9486,10 @@
         <v>0.391257699860667</v>
       </c>
       <c r="O171">
-        <v>-12.565215997801999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3436186808820896</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -9539,10 +9533,10 @@
         <v>0.39041540469455599</v>
       </c>
       <c r="O172">
-        <v>-12.5976649430098</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3235325135997495</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -9586,10 +9580,10 @@
         <v>0.39151856095809801</v>
       </c>
       <c r="O173">
-        <v>-12.671115972866099</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3519038417791407</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -9633,7 +9627,7 @@
         <v>0.39661291654731201</v>
       </c>
       <c r="O174">
-        <v>-12.534822754615099</v>
+        <v>9.2862472673785792</v>
       </c>
       <c r="P174">
         <f t="shared" ref="P174" si="188">SUM(J174:J178)/5</f>
@@ -9655,12 +9649,12 @@
         <f t="shared" ref="T174" si="192">SUM(N174:N178)/5</f>
         <v>0.39408285856481184</v>
       </c>
-      <c r="U174">
+      <c r="U174" s="1">
         <f t="shared" ref="U174" si="193">SUM(O174:O178)/5</f>
-        <v>-12.588059743634439</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3153156334920943</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -9704,10 +9698,10 @@
         <v>0.38594468744245503</v>
       </c>
       <c r="O175">
-        <v>-12.4744889191185</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2642802679147298</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -9751,10 +9745,10 @@
         <v>0.39420928425854901</v>
       </c>
       <c r="O176">
-        <v>-12.610014442611</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3495272738947097</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -9798,10 +9792,10 @@
         <v>0.39784497258468199</v>
       </c>
       <c r="O177">
-        <v>-12.613720173534199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3248113988943206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -9845,10 +9839,10 @@
         <v>0.39580243199106102</v>
       </c>
       <c r="O178">
-        <v>-12.707252428293399</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3517119593781306</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -9895,7 +9889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -9939,7 +9933,7 @@
         <v>0.37495981693195202</v>
       </c>
       <c r="O181">
-        <v>-11.5408095545757</v>
+        <v>9.2258188091176496</v>
       </c>
       <c r="P181">
         <f t="shared" ref="P181" si="194">SUM(J181:J185)/5</f>
@@ -9961,12 +9955,12 @@
         <f t="shared" ref="T181" si="198">SUM(N181:N185)/5</f>
         <v>0.36947705373184497</v>
       </c>
-      <c r="U181">
+      <c r="U181" s="1">
         <f t="shared" ref="U181" si="199">SUM(O181:O185)/5</f>
-        <v>-11.56066107000122</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2510804623904299</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -10010,10 +10004,10 @@
         <v>0.371712319516465</v>
       </c>
       <c r="O182">
-        <v>-11.5094226768755</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2044354181636692</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -10057,10 +10051,10 @@
         <v>0.367622955260411</v>
       </c>
       <c r="O183">
-        <v>-11.5550588374358</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.28394570434644</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -10104,10 +10098,10 @@
         <v>0.36676505348528798</v>
       </c>
       <c r="O184">
-        <v>-11.5806467485666</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2611960078458306</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -10151,10 +10145,10 @@
         <v>0.36632512346510898</v>
       </c>
       <c r="O185">
-        <v>-11.6173675325525</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2800063724785709</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -10198,7 +10192,7 @@
         <v>0.39240445829606502</v>
       </c>
       <c r="O186">
-        <v>-11.8748291719706</v>
+        <v>9.2463495332573107</v>
       </c>
       <c r="P186">
         <f t="shared" ref="P186" si="200">SUM(J186:J190)/5</f>
@@ -10220,12 +10214,12 @@
         <f t="shared" ref="T186" si="204">SUM(N186:N190)/5</f>
         <v>0.38680138574559758</v>
       </c>
-      <c r="U186">
+      <c r="U186" s="1">
         <f t="shared" ref="U186" si="205">SUM(O186:O190)/5</f>
-        <v>-11.898072599266838</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2735580852781574</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -10269,10 +10263,10 @@
         <v>0.38632193512285701</v>
       </c>
       <c r="O187">
-        <v>-11.8379285191577</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2282758696783294</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -10316,10 +10310,10 @@
         <v>0.38596394156963498</v>
       </c>
       <c r="O188">
-        <v>-11.882872577977899</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3048877400334593</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -10363,10 +10357,10 @@
         <v>0.39086581846297302</v>
       </c>
       <c r="O189">
-        <v>-11.948497475645199</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2846320681091896</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -10410,10 +10404,10 @@
         <v>0.37845077527645798</v>
       </c>
       <c r="O190">
-        <v>-11.946235251582801</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3036452153124998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -10457,7 +10451,7 @@
         <v>0.40028060015435002</v>
       </c>
       <c r="O191">
-        <v>-12.033320873267799</v>
+        <v>9.2555912877356494</v>
       </c>
       <c r="P191">
         <f t="shared" ref="P191" si="206">SUM(J191:J195)/5</f>
@@ -10479,12 +10473,12 @@
         <f t="shared" ref="T191" si="210">SUM(N191:N195)/5</f>
         <v>0.39466150456981774</v>
       </c>
-      <c r="U191">
+      <c r="U191" s="1">
         <f t="shared" ref="U191" si="211">SUM(O191:O195)/5</f>
-        <v>-12.056280678548998</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2820795469792365</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -10528,10 +10522,10 @@
         <v>0.39099555939105901</v>
       </c>
       <c r="O192">
-        <v>-11.9828177922747</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2382797256418492</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -10575,10 +10569,10 @@
         <v>0.395288496437257</v>
       </c>
       <c r="O193">
-        <v>-12.0043938371581</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3096263291323602</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -10622,10 +10616,10 @@
         <v>0.39813277623176002</v>
       </c>
       <c r="O194">
-        <v>-12.0930046924483</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2916996398878808</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -10669,10 +10663,10 @@
         <v>0.38861009063466301</v>
       </c>
       <c r="O195">
-        <v>-12.1678661975961</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3152007524984501</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -10716,7 +10710,7 @@
         <v>0.40373416166487902</v>
       </c>
       <c r="O196">
-        <v>-12.1411868427115</v>
+        <v>9.2649866886276495</v>
       </c>
       <c r="P196">
         <f t="shared" ref="P196" si="212">SUM(J196:J200)/5</f>
@@ -10738,12 +10732,12 @@
         <f t="shared" ref="T196" si="216">SUM(N196:N200)/5</f>
         <v>0.39834811318326963</v>
       </c>
-      <c r="U196">
+      <c r="U196" s="1">
         <f t="shared" ref="U196" si="217">SUM(O196:O200)/5</f>
-        <v>-12.14451847077888</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2882504781127118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -10787,10 +10781,10 @@
         <v>0.39730276183414798</v>
       </c>
       <c r="O197">
-        <v>-12.0596704169793</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2431764517479404</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -10834,10 +10828,10 @@
         <v>0.399439426105058</v>
       </c>
       <c r="O198">
-        <v>-12.125441587594899</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3158180807030799</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -10881,10 +10875,10 @@
         <v>0.40129911459711998</v>
       </c>
       <c r="O199">
-        <v>-12.160866451306701</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2948455153089409</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -10928,10 +10922,10 @@
         <v>0.38996510171514298</v>
       </c>
       <c r="O200">
-        <v>-12.235427055302001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3224256541759498</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
       <c r="A201" t="s">
         <v>23</v>
       </c>
@@ -10975,7 +10969,7 @@
         <v>0.40429612723194502</v>
       </c>
       <c r="O201">
-        <v>-12.177528524902799</v>
+        <v>9.2666470656595408</v>
       </c>
       <c r="P201">
         <f t="shared" ref="P201" si="218">SUM(J201:J205)/5</f>
@@ -10997,12 +10991,12 @@
         <f t="shared" ref="T201" si="222">SUM(N201:N205)/5</f>
         <v>0.40075176409829522</v>
       </c>
-      <c r="U201">
+      <c r="U201" s="1">
         <f t="shared" ref="U201" si="223">SUM(O201:O205)/5</f>
-        <v>-12.213555378383699</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2923122400523219</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -11046,10 +11040,10 @@
         <v>0.39831813233314201</v>
       </c>
       <c r="O202">
-        <v>-12.1210278913611</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2433803897527405</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -11093,10 +11087,10 @@
         <v>0.40174363023566501</v>
       </c>
       <c r="O203">
-        <v>-12.185064785187</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3224922641092203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -11140,10 +11134,10 @@
         <v>0.40575407193165303</v>
       </c>
       <c r="O204">
-        <v>-12.270547470894501</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3022851497313095</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -11187,10 +11181,10 @@
         <v>0.39364685875907102</v>
       </c>
       <c r="O205">
-        <v>-12.3136082195731</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3267563310088004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -11234,7 +11228,7 @@
         <v>0.40461458294579</v>
       </c>
       <c r="O206">
-        <v>-12.190385902709099</v>
+        <v>9.2667167412036999</v>
       </c>
       <c r="P206">
         <f t="shared" ref="P206" si="224">SUM(J206:J210)/5</f>
@@ -11256,12 +11250,12 @@
         <f t="shared" ref="T206" si="228">SUM(N206:N210)/5</f>
         <v>0.40188478075819639</v>
       </c>
-      <c r="U206">
+      <c r="U206" s="1">
         <f t="shared" ref="U206" si="229">SUM(O206:O210)/5</f>
-        <v>-12.245735249665561</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2939163721553548</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -11305,10 +11299,10 @@
         <v>0.40061230710836698</v>
       </c>
       <c r="O207">
-        <v>-12.1598208275225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.24673807716343</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -11352,10 +11346,10 @@
         <v>0.40312954787021199</v>
       </c>
       <c r="O208">
-        <v>-12.2185623638181</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3223832866480691</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -11399,10 +11393,10 @@
         <v>0.40487824064811401</v>
       </c>
       <c r="O209">
-        <v>-12.310123144394501</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3048976546478208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -11446,10 +11440,10 @@
         <v>0.39618922521849897</v>
       </c>
       <c r="O210">
-        <v>-12.349784009883599</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3288461011137507</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -11493,7 +11487,7 @@
         <v>0.40823323036799702</v>
       </c>
       <c r="O211">
-        <v>-12.2793588512036</v>
+        <v>9.2726065316391804</v>
       </c>
       <c r="P211">
         <f t="shared" ref="P211" si="230">SUM(J211:J215)/5</f>
@@ -11515,12 +11509,12 @@
         <f t="shared" ref="T211" si="234">SUM(N211:N215)/5</f>
         <v>0.40535073309834901</v>
       </c>
-      <c r="U211">
+      <c r="U211" s="1">
         <f t="shared" ref="U211" si="235">SUM(O211:O215)/5</f>
-        <v>-12.32173842014814</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.300100721428171</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -11564,10 +11558,10 @@
         <v>0.402367187571473</v>
       </c>
       <c r="O212">
-        <v>-12.2290958279359</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2515660909014095</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -11611,10 +11605,10 @@
         <v>0.40609192762613999</v>
       </c>
       <c r="O213">
-        <v>-12.2937428035272</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3301144877831597</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -11658,10 +11652,10 @@
         <v>0.40828481691947399</v>
       </c>
       <c r="O214">
-        <v>-12.383560868086599</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3103122519741106</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -11705,10 +11699,10 @@
         <v>0.40177650300666101</v>
       </c>
       <c r="O215">
-        <v>-12.422933749987401</v>
-      </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3359042448429896</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -11752,7 +11746,7 @@
         <v>0.40769030107603499</v>
       </c>
       <c r="O216">
-        <v>-12.337434513472701</v>
+        <v>9.2752240344729007</v>
       </c>
       <c r="P216">
         <f t="shared" ref="P216" si="236">SUM(J216:J220)/5</f>
@@ -11774,12 +11768,12 @@
         <f t="shared" ref="T216" si="240">SUM(N216:N220)/5</f>
         <v>0.40679561242465861</v>
       </c>
-      <c r="U216">
+      <c r="U216" s="1">
         <f t="shared" ref="U216" si="241">SUM(O216:O220)/5</f>
-        <v>-12.363365076824421</v>
-      </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.30191091549686</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -11823,10 +11817,10 @@
         <v>0.40337555724585</v>
       </c>
       <c r="O217">
-        <v>-12.262419236981501</v>
-      </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2516129456833394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -11870,10 +11864,10 @@
         <v>0.40799259454354803</v>
       </c>
       <c r="O218">
-        <v>-12.3260562367548</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3328498971237401</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -11917,10 +11911,10 @@
         <v>0.40990840737451101</v>
       </c>
       <c r="O219">
-        <v>-12.4215862090645</v>
-      </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3112102867530702</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -11964,10 +11958,10 @@
         <v>0.40501120188334899</v>
       </c>
       <c r="O220">
-        <v>-12.469329187848601</v>
-      </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3386574134512497</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -12011,7 +12005,7 @@
         <v>0.40990181443817097</v>
       </c>
       <c r="O221">
-        <v>-12.3725062049594</v>
+        <v>9.2767049189383997</v>
       </c>
       <c r="P221">
         <f t="shared" ref="P221" si="242">SUM(J221:J225)/5</f>
@@ -12033,12 +12027,12 @@
         <f t="shared" ref="T221" si="246">SUM(N221:N225)/5</f>
         <v>0.40834789033678059</v>
       </c>
-      <c r="U221">
+      <c r="U221" s="1">
         <f t="shared" ref="U221" si="247">SUM(O221:O225)/5</f>
-        <v>-12.431876857921839</v>
-      </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3058420530392461</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -12082,10 +12076,10 @@
         <v>0.40236324531402501</v>
       </c>
       <c r="O222">
-        <v>-12.3427440402697</v>
-      </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2556807162238108</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -12129,10 +12123,10 @@
         <v>0.41061998973341002</v>
       </c>
       <c r="O223">
-        <v>-12.401607770998</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3381405021661301</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -12176,10 +12170,10 @@
         <v>0.41064096134648898</v>
       </c>
       <c r="O224">
-        <v>-12.506231746653301</v>
-      </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3160320665262297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -12223,10 +12217,10 @@
         <v>0.408213440851808</v>
       </c>
       <c r="O225">
-        <v>-12.536294526728801</v>
-      </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3426520613416599</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -12270,7 +12264,7 @@
         <v>0.41174424816852701</v>
       </c>
       <c r="O226">
-        <v>-12.427438485029599</v>
+        <v>9.2804126327802603</v>
       </c>
       <c r="P226">
         <f t="shared" ref="P226" si="248">SUM(J226:J230)/5</f>
@@ -12292,12 +12286,12 @@
         <f t="shared" ref="T226" si="252">SUM(N226:N230)/5</f>
         <v>0.40938987500715118</v>
       </c>
-      <c r="U226">
+      <c r="U226" s="1">
         <f t="shared" ref="U226" si="253">SUM(O226:O230)/5</f>
-        <v>-12.480134178656739</v>
-      </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3089580949021595</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21">
       <c r="A227" t="s">
         <v>23</v>
       </c>
@@ -12341,10 +12335,10 @@
         <v>0.40228753625698299</v>
       </c>
       <c r="O227">
-        <v>-12.3803930846481</v>
-      </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2597498863220498</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -12388,10 +12382,10 @@
         <v>0.412288552674411</v>
       </c>
       <c r="O228">
-        <v>-12.4445491412239</v>
-      </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3400008873709695</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -12435,10 +12429,10 @@
         <v>0.411198907331559</v>
       </c>
       <c r="O229">
-        <v>-12.552845061256599</v>
-      </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3177394336417994</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -12482,10 +12476,10 @@
         <v>0.40943013060427602</v>
       </c>
       <c r="O230">
-        <v>-12.595445121125501</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3468876343957206</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -12546,11 +12540,11 @@
       <c r="T232" t="s">
         <v>13</v>
       </c>
-      <c r="U232" t="s">
+      <c r="U232" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -12594,7 +12588,7 @@
         <v>0.31782432938258598</v>
       </c>
       <c r="O233">
-        <v>-11.3170599912021</v>
+        <v>9.2114941613238202</v>
       </c>
       <c r="P233">
         <f t="shared" ref="P233" si="254">SUM(J233:J237)/5</f>
@@ -12616,12 +12610,12 @@
         <f t="shared" ref="T233" si="258">SUM(N233:N237)/5</f>
         <v>0.31092784180675392</v>
       </c>
-      <c r="U233">
+      <c r="U233" s="1">
         <f t="shared" ref="U233" si="259">SUM(O233:O237)/5</f>
-        <v>-11.29586167167032</v>
-      </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.230665114258283</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -12665,10 +12659,10 @@
         <v>0.30981486180460999</v>
       </c>
       <c r="O234">
-        <v>-11.2135827620945</v>
-      </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.1803068988777099</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -12712,10 +12706,10 @@
         <v>0.30806248699549399</v>
       </c>
       <c r="O235">
-        <v>-11.224507160790701</v>
-      </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2592177777220392</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -12759,10 +12753,10 @@
         <v>0.307462052037828</v>
       </c>
       <c r="O236">
-        <v>-11.3488667160345</v>
-      </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2391837126817506</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -12806,10 +12800,10 @@
         <v>0.31147547881325199</v>
       </c>
       <c r="O237">
-        <v>-11.375291728229801</v>
-      </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2631230206860895</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -12853,7 +12847,7 @@
         <v>0.329852702083204</v>
       </c>
       <c r="O238">
-        <v>-11.796431281183001</v>
+        <v>9.2452064470198607</v>
       </c>
       <c r="P238">
         <f t="shared" ref="P238" si="260">SUM(J238:J242)/5</f>
@@ -12875,12 +12869,12 @@
         <f t="shared" ref="T238" si="264">SUM(N238:N242)/5</f>
         <v>0.32741376713049258</v>
       </c>
-      <c r="U238">
+      <c r="U238" s="1">
         <f t="shared" ref="U238" si="265">SUM(O238:O242)/5</f>
-        <v>-11.751574592924801</v>
-      </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2634911058021085</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -12924,10 +12918,10 @@
         <v>0.325646650514755</v>
       </c>
       <c r="O239">
-        <v>-11.672969721966901</v>
-      </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2133926092335905</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -12971,10 +12965,10 @@
         <v>0.32685775193962602</v>
       </c>
       <c r="O240">
-        <v>-11.639985600895701</v>
-      </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2887151284910505</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -13018,10 +13012,10 @@
         <v>0.32766966053572499</v>
       </c>
       <c r="O241">
-        <v>-11.8250815792265</v>
-      </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2725737570444497</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -13065,10 +13059,10 @@
         <v>0.32704207057915302</v>
       </c>
       <c r="O242">
-        <v>-11.823404781351901</v>
-      </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2975675872215895</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -13112,7 +13106,7 @@
         <v>0.34314244634142399</v>
       </c>
       <c r="O243">
-        <v>-12.007440379614501</v>
+        <v>9.2560366727102892</v>
       </c>
       <c r="P243">
         <f t="shared" ref="P243" si="266">SUM(J243:J247)/5</f>
@@ -13134,12 +13128,12 @@
         <f t="shared" ref="T243" si="270">SUM(N243:N247)/5</f>
         <v>0.336461057299838</v>
       </c>
-      <c r="U243">
+      <c r="U243" s="1">
         <f t="shared" ref="U243" si="271">SUM(O243:O247)/5</f>
-        <v>-12.0140341080937</v>
-      </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.277798452216695</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21">
       <c r="A244" t="s">
         <v>25</v>
       </c>
@@ -13183,10 +13177,10 @@
         <v>0.33078280712067998</v>
       </c>
       <c r="O244">
-        <v>-11.948645013222</v>
-      </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2294086506807407</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21">
       <c r="A245" t="s">
         <v>25</v>
       </c>
@@ -13230,10 +13224,10 @@
         <v>0.33887207404298297</v>
       </c>
       <c r="O245">
-        <v>-11.942298389050499</v>
-      </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3039933112524302</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21">
       <c r="A246" t="s">
         <v>25</v>
       </c>
@@ -13277,10 +13271,10 @@
         <v>0.33775826541057802</v>
       </c>
       <c r="O246">
-        <v>-12.081970696507</v>
-      </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2872494363211899</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21">
       <c r="A247" t="s">
         <v>25</v>
       </c>
@@ -13324,10 +13318,10 @@
         <v>0.33174969358352502</v>
       </c>
       <c r="O247">
-        <v>-12.089816062074499</v>
-      </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3123041901188195</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21">
       <c r="A248" t="s">
         <v>25</v>
       </c>
@@ -13371,7 +13365,7 @@
         <v>0.34918874890783302</v>
       </c>
       <c r="O248">
-        <v>-12.1921893853866</v>
+        <v>9.2651320208114907</v>
       </c>
       <c r="P248">
         <f t="shared" ref="P248" si="272">SUM(J248:J252)/5</f>
@@ -13393,12 +13387,12 @@
         <f t="shared" ref="T248" si="276">SUM(N248:N252)/5</f>
         <v>0.34478501929565725</v>
       </c>
-      <c r="U248">
+      <c r="U248" s="1">
         <f t="shared" ref="U248" si="277">SUM(O248:O252)/5</f>
-        <v>-12.185986059783421</v>
-      </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2883384813911967</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21">
       <c r="A249" t="s">
         <v>25</v>
       </c>
@@ -13442,10 +13436,10 @@
         <v>0.34259781567530601</v>
       </c>
       <c r="O249">
-        <v>-12.121980678227599</v>
-      </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2404462640888791</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21">
       <c r="A250" t="s">
         <v>25</v>
       </c>
@@ -13489,10 +13483,10 @@
         <v>0.34802646670367499</v>
       </c>
       <c r="O250">
-        <v>-12.186046606540801</v>
-      </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3206817167092293</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21">
       <c r="A251" t="s">
         <v>25</v>
       </c>
@@ -13536,10 +13530,10 @@
         <v>0.342817768854211</v>
       </c>
       <c r="O251">
-        <v>-12.2110930604267</v>
-      </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2960901524337398</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21">
       <c r="A252" t="s">
         <v>25</v>
       </c>
@@ -13583,10 +13577,10 @@
         <v>0.34129429633726099</v>
       </c>
       <c r="O252">
-        <v>-12.2186205683354</v>
-      </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3193422529126497</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21">
       <c r="A253" t="s">
         <v>25</v>
       </c>
@@ -13630,7 +13624,7 @@
         <v>0.354842279992436</v>
       </c>
       <c r="O253">
-        <v>-12.299934827507601</v>
+        <v>9.2719263180899691</v>
       </c>
       <c r="P253">
         <f t="shared" ref="P253" si="278">SUM(J253:J257)/5</f>
@@ -13652,12 +13646,12 @@
         <f t="shared" ref="T253" si="282">SUM(N253:N257)/5</f>
         <v>0.35088762582301541</v>
       </c>
-      <c r="U253">
+      <c r="U253" s="1">
         <f t="shared" ref="U253" si="283">SUM(O253:O257)/5</f>
-        <v>-12.282114604941201</v>
-      </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2951526026492601</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21">
       <c r="A254" t="s">
         <v>25</v>
       </c>
@@ -13701,10 +13695,10 @@
         <v>0.34751684554069001</v>
       </c>
       <c r="O254">
-        <v>-12.2076004272737</v>
-      </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2454347491413404</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21">
       <c r="A255" t="s">
         <v>25</v>
       </c>
@@ -13748,10 +13742,10 @@
         <v>0.35474762178452102</v>
       </c>
       <c r="O255">
-        <v>-12.248099184589</v>
-      </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3267600075935597</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21">
       <c r="A256" t="s">
         <v>25</v>
       </c>
@@ -13795,10 +13789,10 @@
         <v>0.351014151098475</v>
       </c>
       <c r="O256">
-        <v>-12.27615403341</v>
-      </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3021861303714104</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21">
       <c r="A257" t="s">
         <v>25</v>
       </c>
@@ -13842,10 +13836,10 @@
         <v>0.34631723069895498</v>
       </c>
       <c r="O257">
-        <v>-12.378784551925699</v>
-      </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3294558080500192</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21">
       <c r="A258" t="s">
         <v>25</v>
       </c>
@@ -13889,7 +13883,7 @@
         <v>0.35928709895586503</v>
       </c>
       <c r="O258">
-        <v>-12.329721989922399</v>
+        <v>9.2747297842622398</v>
       </c>
       <c r="P258">
         <f t="shared" ref="P258" si="284">SUM(J258:J262)/5</f>
@@ -13911,12 +13905,12 @@
         <f t="shared" ref="T258" si="288">SUM(N258:N262)/5</f>
         <v>0.35586125182317196</v>
       </c>
-      <c r="U258">
+      <c r="U258" s="1">
         <f t="shared" ref="U258" si="289">SUM(O258:O262)/5</f>
-        <v>-12.353846192320839</v>
-      </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2989527569158543</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21">
       <c r="A259" t="s">
         <v>25</v>
       </c>
@@ -13960,10 +13954,10 @@
         <v>0.35161441994707598</v>
       </c>
       <c r="O259">
-        <v>-12.2712201320007</v>
-      </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.24744073716138</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21">
       <c r="A260" t="s">
         <v>25</v>
       </c>
@@ -14007,10 +14001,10 @@
         <v>0.359074256026922</v>
       </c>
       <c r="O260">
-        <v>-12.334358727274999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3287045132494395</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21">
       <c r="A261" t="s">
         <v>25</v>
       </c>
@@ -14054,10 +14048,10 @@
         <v>0.35529410227684399</v>
       </c>
       <c r="O261">
-        <v>-12.374225139858201</v>
-      </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3079643448769396</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21">
       <c r="A262" t="s">
         <v>25</v>
       </c>
@@ -14101,10 +14095,10 @@
         <v>0.35403638190915299</v>
       </c>
       <c r="O262">
-        <v>-12.4597049725479</v>
-      </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3359244050292691</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -14148,7 +14142,7 @@
         <v>0.364622005918951</v>
       </c>
       <c r="O263">
-        <v>-12.4206294703301</v>
+        <v>9.2763964099892693</v>
       </c>
       <c r="P263">
         <f t="shared" ref="P263" si="290">SUM(J263:J267)/5</f>
@@ -14170,12 +14164,12 @@
         <f t="shared" ref="T263" si="294">SUM(N263:N267)/5</f>
         <v>0.3622536265342598</v>
       </c>
-      <c r="U263">
+      <c r="U263" s="1">
         <f t="shared" ref="U263" si="295">SUM(O263:O267)/5</f>
-        <v>-12.432154355784039</v>
-      </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3025908829100761</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -14219,10 +14213,10 @@
         <v>0.35693623937871</v>
       </c>
       <c r="O264">
-        <v>-12.334435881796001</v>
-      </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2519473402623102</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21">
       <c r="A265" t="s">
         <v>25</v>
       </c>
@@ -14266,10 +14260,10 @@
         <v>0.36497259790367398</v>
       </c>
       <c r="O265">
-        <v>-12.4057498109118</v>
-      </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3338129196829005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21">
       <c r="A266" t="s">
         <v>25</v>
       </c>
@@ -14313,10 +14307,10 @@
         <v>0.362598118500362</v>
       </c>
       <c r="O266">
-        <v>-12.4828047363309</v>
-      </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3140431690578893</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -14360,10 +14354,10 @@
         <v>0.36213917096960202</v>
       </c>
       <c r="O267">
-        <v>-12.517151879551401</v>
-      </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3367545755580093</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21">
       <c r="A268" t="s">
         <v>25</v>
       </c>
@@ -14407,7 +14401,7 @@
         <v>0.37022699348704302</v>
       </c>
       <c r="O268">
-        <v>-12.4652981517205</v>
+        <v>9.2804712250492791</v>
       </c>
       <c r="P268">
         <f t="shared" ref="P268" si="296">SUM(J268:J272)/5</f>
@@ -14429,12 +14423,12 @@
         <f t="shared" ref="T268" si="300">SUM(N268:N272)/5</f>
         <v>0.3672490459977566</v>
       </c>
-      <c r="U268">
+      <c r="U268" s="1">
         <f t="shared" ref="U268" si="301">SUM(O268:O272)/5</f>
-        <v>-12.490784823223041</v>
-      </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3064426085180934</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21">
       <c r="A269" t="s">
         <v>25</v>
       </c>
@@ -14478,10 +14472,10 @@
         <v>0.36084369838065</v>
       </c>
       <c r="O269">
-        <v>-12.392803902061299</v>
-      </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2559853103201704</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21">
       <c r="A270" t="s">
         <v>25</v>
       </c>
@@ -14525,10 +14519,10 @@
         <v>0.37000437928487501</v>
       </c>
       <c r="O270">
-        <v>-12.4661092748955</v>
-      </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3369229524451107</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21">
       <c r="A271" t="s">
         <v>25</v>
       </c>
@@ -14572,10 +14566,10 @@
         <v>0.36757210638541499</v>
       </c>
       <c r="O271">
-        <v>-12.5523403251579</v>
-      </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3183921410303192</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21">
       <c r="A272" t="s">
         <v>25</v>
       </c>
@@ -14619,10 +14613,10 @@
         <v>0.36759805245080002</v>
       </c>
       <c r="O272">
-        <v>-12.57737246228</v>
-      </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3404414137455891</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21">
       <c r="A273" t="s">
         <v>25</v>
       </c>
@@ -14666,7 +14660,7 @@
         <v>0.37833943542475701</v>
       </c>
       <c r="O273">
-        <v>-12.5706710293941</v>
+        <v>9.2878139435575608</v>
       </c>
       <c r="P273">
         <f t="shared" ref="P273" si="302">SUM(J273:J277)/5</f>
@@ -14688,12 +14682,12 @@
         <f t="shared" ref="T273" si="306">SUM(N273:N277)/5</f>
         <v>0.37492860129017458</v>
       </c>
-      <c r="U273">
+      <c r="U273" s="1">
         <f t="shared" ref="U273" si="307">SUM(O273:O277)/5</f>
-        <v>-12.577434642854461</v>
-      </c>
-    </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3127236138559937</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21">
       <c r="A274" t="s">
         <v>25</v>
       </c>
@@ -14737,10 +14731,10 @@
         <v>0.36810331107117999</v>
       </c>
       <c r="O274">
-        <v>-12.4702440934556</v>
-      </c>
-    </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2628715479408701</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21">
       <c r="A275" t="s">
         <v>25</v>
       </c>
@@ -14784,10 +14778,10 @@
         <v>0.37788010439992598</v>
       </c>
       <c r="O275">
-        <v>-12.573057812049599</v>
-      </c>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3454530856592193</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -14831,10 +14825,10 @@
         <v>0.37618344421368999</v>
       </c>
       <c r="O276">
-        <v>-12.6269349389048</v>
-      </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3228098039291591</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21">
       <c r="A277" t="s">
         <v>25</v>
       </c>
@@ -14878,10 +14872,10 @@
         <v>0.37413671134131998</v>
       </c>
       <c r="O277">
-        <v>-12.646265340468201</v>
-      </c>
-    </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3446696881931608</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21">
       <c r="A278" t="s">
         <v>25</v>
       </c>
@@ -14925,7 +14919,7 @@
         <v>0.38309420058370902</v>
       </c>
       <c r="O278">
-        <v>-12.5695768227315</v>
+        <v>9.2888659967827003</v>
       </c>
       <c r="P278">
         <f t="shared" ref="P278" si="308">SUM(J278:J282)/5</f>
@@ -14947,12 +14941,12 @@
         <f t="shared" ref="T278" si="312">SUM(N278:N282)/5</f>
         <v>0.38049634514938735</v>
       </c>
-      <c r="U278">
+      <c r="U278" s="1">
         <f t="shared" ref="U278" si="313">SUM(O278:O282)/5</f>
-        <v>-12.60797616354434</v>
-      </c>
-    </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3152272007996562</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -14996,10 +14990,10 @@
         <v>0.371893976331378</v>
       </c>
       <c r="O279">
-        <v>-12.5002680106799</v>
-      </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.2659391713336205</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -15043,10 +15037,10 @@
         <v>0.38203483348987399</v>
       </c>
       <c r="O280">
-        <v>-12.6065443503041</v>
-      </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3476124745822702</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21">
       <c r="A281" t="s">
         <v>25</v>
       </c>
@@ -15090,10 +15084,10 @@
         <v>0.38350235404188898</v>
       </c>
       <c r="O281">
-        <v>-12.655011683366499</v>
-      </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9.3251541372098998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21">
       <c r="A282" t="s">
         <v>25</v>
       </c>
@@ -15137,7 +15131,7 @@
         <v>0.38195636130008698</v>
       </c>
       <c r="O282">
-        <v>-12.708479950639701</v>
+        <v>9.3485642240897899</v>
       </c>
     </row>
   </sheetData>
@@ -15149,20 +15143,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15209,7 +15203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -15256,7 +15250,7 @@
         <v>-11.418461931006901</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -15303,7 +15297,7 @@
         <v>-11.375441456270501</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -15358,7 +15352,7 @@
         <v>0.94719305790734154</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -15405,7 +15399,7 @@
         <v>-11.4572595406324</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -15452,7 +15446,7 @@
         <v>-11.5144190245306</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -15499,7 +15493,7 @@
         <v>-11.7125964088287</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -15546,7 +15540,7 @@
         <v>-11.684228976103601</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -15601,7 +15595,7 @@
         <v>0.94941868087500314</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -15648,7 +15642,7 @@
         <v>-11.774530693310201</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -15695,7 +15689,7 @@
         <v>-11.8865136095389</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -15742,7 +15736,7 @@
         <v>-11.895931689620101</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -15789,7 +15783,7 @@
         <v>-11.8098018135736</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -15844,7 +15838,7 @@
         <v>0.9507089881255304</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -15891,7 +15885,7 @@
         <v>-11.926253233891501</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -15938,7 +15932,7 @@
         <v>-12.002685450331599</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -15985,7 +15979,7 @@
         <v>-11.948196557534301</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -16032,7 +16026,7 @@
         <v>-11.8889206262103</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -16087,7 +16081,7 @@
         <v>0.95154299021125366</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -16134,7 +16128,7 @@
         <v>-11.956993356566599</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -16181,7 +16175,7 @@
         <v>-12.1344735492528</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -16228,7 +16222,7 @@
         <v>-12.011713876901601</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -16275,7 +16269,7 @@
         <v>-11.899468667077601</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -16330,7 +16324,7 @@
         <v>0.95346101936291006</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -16377,7 +16371,7 @@
         <v>-12.0112577642197</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -16424,7 +16418,7 @@
         <v>-12.184487969244801</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -16471,7 +16465,7 @@
         <v>-12.020684182997799</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -16518,7 +16512,7 @@
         <v>-11.9462780197676</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -16573,7 +16567,7 @@
         <v>0.95499568461567519</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -16620,7 +16614,7 @@
         <v>-12.1014617833325</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -16667,7 +16661,7 @@
         <v>-12.2353619037697</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -16714,7 +16708,7 @@
         <v>-12.0923941113127</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -16761,7 +16755,7 @@
         <v>-11.9928568856038</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -16816,7 +16810,7 @@
         <v>0.95728187321010316</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -16863,7 +16857,7 @@
         <v>-12.161199070349801</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -16910,7 +16904,7 @@
         <v>-12.322814904160699</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -16957,7 +16951,7 @@
         <v>-12.117835842733699</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -17004,7 +16998,7 @@
         <v>-11.9843269931732</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -17059,7 +17053,7 @@
         <v>0.95922533015830891</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -17106,7 +17100,7 @@
         <v>-12.148880880498799</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -17153,7 +17147,7 @@
         <v>-12.2885157813415</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -17200,7 +17194,7 @@
         <v>-12.0745900994695</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -17247,7 +17241,7 @@
         <v>-11.942354898594401</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -17302,7 +17296,7 @@
         <v>0.9624602594783761</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -17349,7 +17343,7 @@
         <v>-12.088133796455301</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -17396,7 +17390,7 @@
         <v>-12.2135328951624</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -17443,7 +17437,7 @@
         <v>-12.075754476715399</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -17490,7 +17484,7 @@
         <v>-11.938552663550199</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -17541,7 +17535,7 @@
         <v>0.96483290625287865</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -17588,7 +17582,7 @@
         <v>-12.0847821511075</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -17635,7 +17629,7 @@
         <v>-12.204570592968601</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -17699,7 +17693,7 @@
         <v>0.38739950341434104</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -17743,7 +17737,7 @@
         <v>-12.467159895007301</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -17787,7 +17781,7 @@
         <v>-12.402731415653699</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -17831,7 +17825,7 @@
         <v>-12.4869916583107</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -17875,13 +17869,13 @@
         <v>-12.5198965983965</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21">
       <c r="L58" s="1">
         <f>SUM(L53:L57)/5</f>
         <v>0.81875791932015896</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -17949,7 +17943,7 @@
         <v>-12.469821249119601</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -17993,7 +17987,7 @@
         <v>-12.467159895007301</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -18037,7 +18031,7 @@
         <v>-12.402731415653699</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -18081,7 +18075,7 @@
         <v>-12.4869916583107</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -18134,19 +18128,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="19" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18211,7 +18205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -18258,31 +18252,31 @@
         <v>-11.418461931006901</v>
       </c>
       <c r="P2">
-        <f>SUM(J2:J6)/5</f>
+        <f t="shared" ref="P2:U2" si="0">SUM(J2:J6)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q2">
-        <f>SUM(K2:K6)/5</f>
+        <f t="shared" si="0"/>
         <v>1.0240089587167298</v>
       </c>
       <c r="R2">
-        <f>SUM(L2:L6)/5</f>
+        <f t="shared" si="0"/>
         <v>0.93663654090694259</v>
       </c>
       <c r="S2" s="1">
-        <f>SUM(M2:M6)/5</f>
+        <f t="shared" si="0"/>
         <v>0.94719305790734154</v>
       </c>
       <c r="T2">
-        <f>SUM(N2:N6)/5</f>
+        <f t="shared" si="0"/>
         <v>0.33618057562550696</v>
       </c>
       <c r="U2">
-        <f>SUM(O2:O6)/5</f>
+        <f t="shared" si="0"/>
         <v>-11.455316727972379</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -18329,7 +18323,7 @@
         <v>-11.375441456270501</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -18376,7 +18370,7 @@
         <v>-11.5110016874215</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -18423,7 +18417,7 @@
         <v>-11.4572595406324</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -18470,7 +18464,7 @@
         <v>-11.5144190245306</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -18517,31 +18511,31 @@
         <v>-11.7125964088287</v>
       </c>
       <c r="P7">
-        <f>SUM(J7:J11)/5</f>
+        <f t="shared" ref="P7:U7" si="1">SUM(J7:J11)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q7">
-        <f>SUM(K7:K11)/5</f>
+        <f t="shared" si="1"/>
         <v>0.97492502261325742</v>
       </c>
       <c r="R7">
-        <f>SUM(L7:L11)/5</f>
+        <f t="shared" si="1"/>
         <v>0.89449035321017445</v>
       </c>
       <c r="S7" s="1">
-        <f>SUM(M7:M11)/5</f>
+        <f t="shared" si="1"/>
         <v>0.94941868087500314</v>
       </c>
       <c r="T7">
-        <f>SUM(N7:N11)/5</f>
+        <f t="shared" si="1"/>
         <v>0.34533882200995564</v>
       </c>
       <c r="U7">
-        <f>SUM(O7:O11)/5</f>
+        <f t="shared" si="1"/>
         <v>-11.765559193508462</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -18588,7 +18582,7 @@
         <v>-11.684228976103601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -18635,7 +18629,7 @@
         <v>-11.769926279760901</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -18682,7 +18676,7 @@
         <v>-11.774530693310201</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -18729,7 +18723,7 @@
         <v>-11.8865136095389</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -18776,31 +18770,31 @@
         <v>-11.895931689620101</v>
       </c>
       <c r="P12">
-        <f>SUM(J12:J16)/5</f>
+        <f t="shared" ref="P12:U12" si="2">SUM(J12:J16)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q12">
-        <f>SUM(K12:K16)/5</f>
+        <f t="shared" si="2"/>
         <v>0.9537233004017992</v>
       </c>
       <c r="R12">
-        <f>SUM(L12:L16)/5</f>
+        <f t="shared" si="2"/>
         <v>0.87433404587250796</v>
       </c>
       <c r="S12" s="1">
-        <f>SUM(M12:M16)/5</f>
+        <f t="shared" si="2"/>
         <v>0.9507089881255304</v>
       </c>
       <c r="T12">
-        <f>SUM(N12:N16)/5</f>
+        <f t="shared" si="2"/>
         <v>0.35289503461518601</v>
       </c>
       <c r="U12">
-        <f>SUM(O12:O16)/5</f>
+        <f t="shared" si="2"/>
         <v>-11.910938813450839</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -18847,7 +18841,7 @@
         <v>-11.8098018135736</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -18894,7 +18888,7 @@
         <v>-11.9200218798374</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -18941,7 +18935,7 @@
         <v>-11.926253233891501</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -18988,7 +18982,7 @@
         <v>-12.002685450331599</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -19035,31 +19029,31 @@
         <v>-11.948196557534301</v>
       </c>
       <c r="P17">
-        <f>SUM(J17:J21)/5</f>
+        <f t="shared" ref="P17:U17" si="3">SUM(J17:J21)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q17">
-        <f>SUM(K17:K21)/5</f>
+        <f t="shared" si="3"/>
         <v>0.93790621735885649</v>
       </c>
       <c r="R17">
-        <f>SUM(L17:L21)/5</f>
+        <f t="shared" si="3"/>
         <v>0.85979244070013849</v>
       </c>
       <c r="S17" s="1">
-        <f>SUM(M17:M21)/5</f>
+        <f t="shared" si="3"/>
         <v>0.95154299021125366</v>
       </c>
       <c r="T17">
-        <f>SUM(N17:N21)/5</f>
+        <f t="shared" si="3"/>
         <v>0.35590527911113801</v>
       </c>
       <c r="U17">
-        <f>SUM(O17:O21)/5</f>
+        <f t="shared" si="3"/>
         <v>-11.977658632864621</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -19106,7 +19100,7 @@
         <v>-11.8889206262103</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -19153,7 +19147,7 @@
         <v>-11.9597090747591</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -19200,7 +19194,7 @@
         <v>-11.956993356566599</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -19247,7 +19241,7 @@
         <v>-12.1344735492528</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -19294,31 +19288,31 @@
         <v>-12.011713876901601</v>
       </c>
       <c r="P22">
-        <f>SUM(J22:J26)/5</f>
+        <f t="shared" ref="P22:U22" si="4">SUM(J22:J26)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q22">
-        <f>SUM(K22:K26)/5</f>
+        <f t="shared" si="4"/>
         <v>0.92333731974006683</v>
       </c>
       <c r="R22">
-        <f>SUM(L22:L26)/5</f>
+        <f t="shared" si="4"/>
         <v>0.8468538127623203</v>
       </c>
       <c r="S22" s="1">
-        <f>SUM(M22:M26)/5</f>
+        <f t="shared" si="4"/>
         <v>0.95346101936291006</v>
       </c>
       <c r="T22">
-        <f>SUM(N22:N26)/5</f>
+        <f t="shared" si="4"/>
         <v>0.36333481613271779</v>
       </c>
       <c r="U22">
-        <f>SUM(O22:O26)/5</f>
+        <f t="shared" si="4"/>
         <v>-12.02054528714892</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -19365,7 +19359,7 @@
         <v>-11.899468667077601</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -19412,7 +19406,7 @@
         <v>-11.9957981583009</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -19459,7 +19453,7 @@
         <v>-12.0112577642197</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -19506,7 +19500,7 @@
         <v>-12.184487969244801</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -19553,31 +19547,31 @@
         <v>-12.020684182997799</v>
       </c>
       <c r="P27">
-        <f>SUM(J27:J31)/5</f>
+        <f t="shared" ref="P27:U27" si="5">SUM(J27:J31)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q27">
-        <f>SUM(K27:K31)/5</f>
+        <f t="shared" si="5"/>
         <v>0.91234682362278574</v>
       </c>
       <c r="R27">
-        <f>SUM(L27:L31)/5</f>
+        <f t="shared" si="5"/>
         <v>0.8366966462674652</v>
       </c>
       <c r="S27" s="1">
-        <f>SUM(M27:M31)/5</f>
+        <f t="shared" si="5"/>
         <v>0.95499568461567519</v>
       </c>
       <c r="T27">
-        <f>SUM(N27:N31)/5</f>
+        <f t="shared" si="5"/>
         <v>0.36837604747764841</v>
       </c>
       <c r="U27">
-        <f>SUM(O27:O31)/5</f>
+        <f t="shared" si="5"/>
         <v>-12.065520239116818</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -19624,7 +19618,7 @@
         <v>-11.9462780197676</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -19671,7 +19665,7 @@
         <v>-12.0238153057165</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -19718,7 +19712,7 @@
         <v>-12.1014617833325</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -19765,7 +19759,7 @@
         <v>-12.2353619037697</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -19812,31 +19806,31 @@
         <v>-12.0923941113127</v>
       </c>
       <c r="P32">
-        <f>SUM(J32:J36)/5</f>
+        <f t="shared" ref="P32:U32" si="6">SUM(J32:J36)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q32">
-        <f>SUM(K32:K36)/5</f>
+        <f t="shared" si="6"/>
         <v>0.89805294932758495</v>
       </c>
       <c r="R32">
-        <f>SUM(L32:L36)/5</f>
+        <f t="shared" si="6"/>
         <v>0.82283754356290262</v>
       </c>
       <c r="S32" s="1">
-        <f>SUM(M32:M36)/5</f>
+        <f t="shared" si="6"/>
         <v>0.95728187321010316</v>
       </c>
       <c r="T32">
-        <f>SUM(N32:N36)/5</f>
+        <f t="shared" si="6"/>
         <v>0.3801829976316432</v>
       </c>
       <c r="U32">
-        <f>SUM(O32:O36)/5</f>
+        <f t="shared" si="6"/>
         <v>-12.125508908770922</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -19883,7 +19877,7 @@
         <v>-11.9928568856038</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -19930,7 +19924,7 @@
         <v>-12.058279572427599</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -19977,7 +19971,7 @@
         <v>-12.161199070349801</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -20024,7 +20018,7 @@
         <v>-12.322814904160699</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -20071,31 +20065,31 @@
         <v>-12.117835842733699</v>
       </c>
       <c r="P37">
-        <f>SUM(J37:J41)/5</f>
+        <f t="shared" ref="P37:U37" si="7">SUM(J37:J41)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q37">
-        <f>SUM(K37:K41)/5</f>
+        <f t="shared" si="7"/>
         <v>0.88301704889714938</v>
       </c>
       <c r="R37">
-        <f>SUM(L37:L41)/5</f>
+        <f t="shared" si="7"/>
         <v>0.80810009820418105</v>
       </c>
       <c r="S37" s="1">
-        <f>SUM(M37:M41)/5</f>
+        <f t="shared" si="7"/>
         <v>0.95922533015830891</v>
       </c>
       <c r="T37">
-        <f>SUM(N37:N41)/5</f>
+        <f t="shared" si="7"/>
         <v>0.39232742119548342</v>
       </c>
       <c r="U37">
-        <f>SUM(O37:O41)/5</f>
+        <f t="shared" si="7"/>
         <v>-12.11608745231082</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -20142,7 +20136,7 @@
         <v>-11.9843269931732</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -20189,7 +20183,7 @@
         <v>-12.0408777638069</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -20236,7 +20230,7 @@
         <v>-12.148880880498799</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -20283,7 +20277,7 @@
         <v>-12.2885157813415</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -20330,31 +20324,31 @@
         <v>-12.0745900994695</v>
       </c>
       <c r="P42">
-        <f>SUM(J42:J46)/5</f>
+        <f t="shared" ref="P42:U42" si="8">SUM(J42:J46)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q42">
-        <f>SUM(K42:K46)/5</f>
+        <f t="shared" si="8"/>
         <v>0.85644496263104364</v>
       </c>
       <c r="R42">
-        <f>SUM(L42:L46)/5</f>
+        <f t="shared" si="8"/>
         <v>0.78398748441977761</v>
       </c>
       <c r="S42" s="1">
-        <f>SUM(M42:M46)/5</f>
+        <f t="shared" si="8"/>
         <v>0.9624602594783761</v>
       </c>
       <c r="T42">
-        <f>SUM(N42:N46)/5</f>
+        <f t="shared" si="8"/>
         <v>0.41290654544569999</v>
       </c>
       <c r="U42">
-        <f>SUM(O42:O46)/5</f>
+        <f t="shared" si="8"/>
         <v>-12.068617857032921</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -20401,7 +20395,7 @@
         <v>-11.942354898594401</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -20448,7 +20442,7 @@
         <v>-12.024477595483001</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -20495,7 +20489,7 @@
         <v>-12.088133796455301</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -20542,7 +20536,7 @@
         <v>-12.2135328951624</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -20589,31 +20583,31 @@
         <v>-12.075754476715399</v>
       </c>
       <c r="P47">
-        <f>SUM(J47:J51)/5</f>
+        <f t="shared" ref="P47:U47" si="9">SUM(J47:J51)/5</f>
         <v>0.9967225161709854</v>
       </c>
       <c r="Q47">
-        <f>SUM(K47:K51)/5</f>
+        <f t="shared" si="9"/>
         <v>0.84169682631949461</v>
       </c>
       <c r="R47">
-        <f>SUM(L47:L51)/5</f>
+        <f t="shared" si="9"/>
         <v>0.77130901248114214</v>
       </c>
       <c r="S47" s="1">
-        <f>SUM(M47:M51)/5</f>
+        <f t="shared" si="9"/>
         <v>0.96483290625287865</v>
       </c>
       <c r="T47">
-        <f>SUM(N47:N51)/5</f>
+        <f t="shared" si="9"/>
         <v>0.41743746482149541</v>
       </c>
       <c r="U47">
-        <f>SUM(O47:O51)/5</f>
+        <f t="shared" si="9"/>
         <v>-12.0653525521959</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -20660,7 +20654,7 @@
         <v>-11.938552663550199</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -20707,7 +20701,7 @@
         <v>-12.0231028766378</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -20754,7 +20748,7 @@
         <v>-12.0847821511075</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -20801,7 +20795,7 @@
         <v>-12.204570592968601</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -20845,31 +20839,31 @@
         <v>-12.4723266782298</v>
       </c>
       <c r="P53">
-        <f t="shared" ref="P53:U53" si="0">SUM(J53:J57)/5</f>
+        <f t="shared" ref="P53:U53" si="10">SUM(J53:J57)/5</f>
         <v>1</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.89192368081565454</v>
       </c>
       <c r="R53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.81875791932015896</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.96231976555042897</v>
       </c>
       <c r="T53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0.38739950341434104</v>
       </c>
       <c r="U53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-12.469821249119601</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -20913,7 +20907,7 @@
         <v>-12.467159895007301</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -20957,7 +20951,7 @@
         <v>-12.402731415653699</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -21001,7 +20995,7 @@
         <v>-12.4869916583107</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -21054,19 +21048,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21131,7 +21125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -21202,7 +21196,7 @@
         <v>-9.6297527446080853</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -21249,7 +21243,7 @@
         <v>-9.2241289331159706</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -21296,7 +21290,7 @@
         <v>-9.3087202094796897</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -21343,7 +21337,7 @@
         <v>-9.1934244516559893</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -21390,7 +21384,7 @@
         <v>-9.2290145832424706</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -21445,7 +21439,7 @@
         <v>0.92870688085972097</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -21492,7 +21486,7 @@
         <v>-9.18566292085751</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -21539,7 +21533,7 @@
         <v>-9.2724166262147403</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -21586,7 +21580,7 @@
         <v>-9.2249001014293697</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -21633,7 +21627,7 @@
         <v>-9.2879528304342092</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -21688,7 +21682,7 @@
         <v>0.92863871944975662</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -21735,7 +21729,7 @@
         <v>-9.1599202157124502</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -21782,7 +21776,7 @@
         <v>-9.2368008406074207</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -21829,7 +21823,7 @@
         <v>-9.2620008967353602</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -21876,7 +21870,7 @@
         <v>-9.3235672143045303</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -21931,7 +21925,7 @@
         <v>0.92876547275317412</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -21978,7 +21972,7 @@
         <v>-9.2351301163292998</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -22025,7 +22019,7 @@
         <v>-9.3068399729536804</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -22072,7 +22066,7 @@
         <v>-9.3359887336255198</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -22119,7 +22113,7 @@
         <v>-9.4929973423027398</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -22174,7 +22168,7 @@
         <v>0.93112329276355721</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -22221,7 +22215,7 @@
         <v>-9.3268568931403895</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -22268,7 +22262,7 @@
         <v>-9.3776052776837808</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -22315,7 +22309,7 @@
         <v>-9.4567384749542498</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -22362,7 +22356,7 @@
         <v>-9.5922829016976401</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -22417,7 +22411,7 @@
         <v>0.93372490540413844</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -22464,7 +22458,7 @@
         <v>-9.4978569576522993</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -22511,7 +22505,7 @@
         <v>-9.5360815349740307</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -22558,7 +22552,7 @@
         <v>-9.6852290673261692</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -22605,7 +22599,7 @@
         <v>-9.7665714144806497</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -22660,7 +22654,7 @@
         <v>0.93769710513992854</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -22707,7 +22701,7 @@
         <v>-9.7903754734309008</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -22754,7 +22748,7 @@
         <v>-9.7882046714409103</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -22801,7 +22795,7 @@
         <v>-9.85746458906325</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -22848,7 +22842,7 @@
         <v>-10.0803200911486</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -22903,7 +22897,7 @@
         <v>0.94359893453454347</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -22950,7 +22944,7 @@
         <v>-9.8371043647115695</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -22997,7 +22991,7 @@
         <v>-9.9266808723779807</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -23044,7 +23038,7 @@
         <v>-10.028771692946799</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -23091,7 +23085,7 @@
         <v>-10.1694587693794</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -23146,7 +23140,7 @@
         <v>0.95351901745283474</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -23193,7 +23187,7 @@
         <v>-9.9519349134392296</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -23240,7 +23234,7 @@
         <v>-10.064635225964</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -23287,7 +23281,7 @@
         <v>-10.138070178261501</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -23334,7 +23328,7 @@
         <v>-10.1913364024259</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -23389,7 +23383,7 @@
         <v>0.95807479804322837</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -23436,7 +23430,7 @@
         <v>-9.9603178539176103</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -23483,7 +23477,7 @@
         <v>-10.054843531343501</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -23530,7 +23524,7 @@
         <v>-10.134844324435701</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -23586,16 +23580,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23660,7 +23654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -23711,7 +23705,7 @@
         <v>-11.433498716437979</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -23758,7 +23752,7 @@
         <v>-11.3990591697093</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -23805,7 +23799,7 @@
         <v>-11.362959164307201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -23852,7 +23846,7 @@
         <v>-11.4222522392317</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -23899,7 +23893,7 @@
         <v>-11.5826564894707</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -23950,7 +23944,7 @@
         <v>-11.915106442010341</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -23997,7 +23991,7 @@
         <v>-11.8505855833842</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -24044,7 +24038,7 @@
         <v>-11.850358617636401</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -24091,7 +24085,7 @@
         <v>-11.9693678531673</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -24138,7 +24132,7 @@
         <v>-12.0123896658242</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -24189,7 +24183,7 @@
         <v>-12.137763458843461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -24236,7 +24230,7 @@
         <v>-12.102858858901801</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -24283,7 +24277,7 @@
         <v>-12.0584695407561</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -24330,7 +24324,7 @@
         <v>-12.189730165500899</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -24377,7 +24371,7 @@
         <v>-12.2407585021865</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -24428,7 +24422,7 @@
         <v>-12.280822529620179</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -24475,7 +24469,7 @@
         <v>-12.2081684584937</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -24522,7 +24516,7 @@
         <v>-12.258056272650601</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -24569,7 +24563,7 @@
         <v>-12.309055107313799</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -24616,7 +24610,7 @@
         <v>-12.4113445709802</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -24667,7 +24661,7 @@
         <v>-12.37357111986686</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -24714,7 +24708,7 @@
         <v>-12.290344974853801</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -24761,7 +24755,7 @@
         <v>-12.335354293153699</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -24808,7 +24802,7 @@
         <v>-12.387471845847299</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -24855,7 +24849,7 @@
         <v>-12.511173464829399</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -24906,7 +24900,7 @@
         <v>-12.428639307362221</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -24953,7 +24947,7 @@
         <v>-12.3813159717554</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -25000,7 +24994,7 @@
         <v>-12.3742208152616</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -25047,7 +25041,7 @@
         <v>-12.440088704347801</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -25094,7 +25088,7 @@
         <v>-12.5569390901804</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -25145,7 +25139,7 @@
         <v>-12.4918413976918</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -25192,7 +25186,7 @@
         <v>-12.424139182648901</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -25239,7 +25233,7 @@
         <v>-12.462831093269401</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -25286,7 +25280,7 @@
         <v>-12.490755320200501</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -25333,7 +25327,7 @@
         <v>-12.6071245777458</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -25384,7 +25378,7 @@
         <v>-12.519272488441921</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -25431,7 +25425,7 @@
         <v>-12.432744021596699</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -25478,7 +25472,7 @@
         <v>-12.492069525808899</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -25525,7 +25519,7 @@
         <v>-12.5222242325362</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -25572,7 +25566,7 @@
         <v>-12.6341422079963</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -25623,7 +25617,7 @@
         <v>-12.5744302136826</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -25670,7 +25664,7 @@
         <v>-12.469142371815501</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -25717,7 +25711,7 @@
         <v>-12.565215997801999</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -25764,7 +25758,7 @@
         <v>-12.5976649430098</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -25811,7 +25805,7 @@
         <v>-12.671115972866099</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -25862,7 +25856,7 @@
         <v>-12.588059743634439</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -25909,7 +25903,7 @@
         <v>-12.4744889191185</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -25956,7 +25950,7 @@
         <v>-12.610014442611</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -26003,7 +25997,7 @@
         <v>-12.613720173534199</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -26050,7 +26044,7 @@
         <v>-12.707252428293399</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21">
       <c r="U52">
         <f>SUM(O52:O56)/5</f>
         <v>0</v>
@@ -26065,7 +26059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26075,13 +26069,13 @@
       <selection pane="bottomRight" activeCell="X112" sqref="X112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26146,7 +26140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -26223,7 +26217,7 @@
         <v>588.4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -26264,7 +26258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -26305,7 +26299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -26346,7 +26340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -26387,7 +26381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -26467,7 +26461,7 @@
         <v>3237.2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -26511,7 +26505,7 @@
         <v>-12.467159895007301</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -26555,7 +26549,7 @@
         <v>-12.402731415653699</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -26599,7 +26593,7 @@
         <v>-12.4869916583107</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -26643,7 +26637,7 @@
         <v>-12.5198965983965</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -26726,7 +26720,7 @@
         <v>2922.3999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -26773,7 +26767,7 @@
         <v>-9.2203175206677397</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -26820,7 +26814,7 @@
         <v>-9.2569612441012303</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -26867,7 +26861,7 @@
         <v>-9.3139738027654904</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -26914,7 +26908,7 @@
         <v>-9.5217863421705395</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -26961,7 +26955,7 @@
         <v>-9.5910320433478606</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -27008,7 +27002,7 @@
         <v>-10.0343390838998</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -27055,7 +27049,7 @@
         <v>-10.159610400095101</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -27102,7 +27096,7 @@
         <v>-10.2287744642656</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -27149,7 +27143,7 @@
         <v>-10.2289250401601</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -27196,7 +27190,7 @@
         <v>-9.2241289331159706</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -27243,7 +27237,7 @@
         <v>-9.18566292085751</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -27290,7 +27284,7 @@
         <v>-9.1599202157124502</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -27337,7 +27331,7 @@
         <v>-9.2351301163292998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -27384,7 +27378,7 @@
         <v>-9.3268568931403895</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -27431,7 +27425,7 @@
         <v>-9.4978569576522993</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -27478,7 +27472,7 @@
         <v>-9.7903754734309008</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -27525,7 +27519,7 @@
         <v>-9.8371043647115695</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -27572,7 +27566,7 @@
         <v>-9.9519349134392296</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -27619,7 +27613,7 @@
         <v>-9.9603178539176103</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -27666,7 +27660,7 @@
         <v>-9.3087202094796897</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -27713,7 +27707,7 @@
         <v>-9.2724166262147403</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -27760,7 +27754,7 @@
         <v>-9.2368008406074207</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -27807,7 +27801,7 @@
         <v>-9.3068399729536804</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -27854,7 +27848,7 @@
         <v>-9.3776052776837808</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -27901,7 +27895,7 @@
         <v>-9.5360815349740307</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -27948,7 +27942,7 @@
         <v>-9.7882046714409103</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -27995,7 +27989,7 @@
         <v>-9.9266808723779807</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -28042,7 +28036,7 @@
         <v>-10.064635225964</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -28089,7 +28083,7 @@
         <v>-10.054843531343501</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -28136,7 +28130,7 @@
         <v>-9.1934244516559893</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -28183,7 +28177,7 @@
         <v>-9.2249001014293697</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -28230,7 +28224,7 @@
         <v>-9.2620008967353602</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -28277,7 +28271,7 @@
         <v>-9.3359887336255198</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -28324,7 +28318,7 @@
         <v>-9.4567384749542498</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -28371,7 +28365,7 @@
         <v>-9.6852290673261692</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -28418,7 +28412,7 @@
         <v>-9.85746458906325</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -28465,7 +28459,7 @@
         <v>-10.028771692946799</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -28512,7 +28506,7 @@
         <v>-10.138070178261501</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -28559,7 +28553,7 @@
         <v>-10.134844324435701</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -28606,7 +28600,7 @@
         <v>-9.2290145832424706</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -28653,7 +28647,7 @@
         <v>-9.2879528304342092</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -28700,7 +28694,7 @@
         <v>-9.3235672143045303</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -28747,7 +28741,7 @@
         <v>-9.4929973423027398</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -28794,7 +28788,7 @@
         <v>-9.5922829016976401</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -28841,7 +28835,7 @@
         <v>-9.7665714144806497</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -28888,7 +28882,7 @@
         <v>-10.0803200911486</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -28935,7 +28929,7 @@
         <v>-10.1694587693794</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -28982,7 +28976,7 @@
         <v>-10.1913364024259</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -29029,7 +29023,7 @@
         <v>-10.1938819200859</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -29112,7 +29106,7 @@
         <v>3564.6</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -29159,7 +29153,7 @@
         <v>-11.7125964088287</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -29206,7 +29200,7 @@
         <v>-11.895931689620101</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -29253,7 +29247,7 @@
         <v>-11.948196557534301</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -29300,7 +29294,7 @@
         <v>-12.011713876901601</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -29347,7 +29341,7 @@
         <v>-12.020684182997799</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -29394,7 +29388,7 @@
         <v>-12.0923941113127</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -29441,7 +29435,7 @@
         <v>-12.117835842733699</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -29488,7 +29482,7 @@
         <v>-12.0745900994695</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -29535,7 +29529,7 @@
         <v>-12.075754476715399</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -29582,7 +29576,7 @@
         <v>-11.375441456270501</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -29629,7 +29623,7 @@
         <v>-11.684228976103601</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -29676,7 +29670,7 @@
         <v>-11.8098018135736</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -29723,7 +29717,7 @@
         <v>-11.8889206262103</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -29770,7 +29764,7 @@
         <v>-11.899468667077601</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -29817,7 +29811,7 @@
         <v>-11.9462780197676</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -29864,7 +29858,7 @@
         <v>-11.9928568856038</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -29911,7 +29905,7 @@
         <v>-11.9843269931732</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -29958,7 +29952,7 @@
         <v>-11.942354898594401</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -30005,7 +29999,7 @@
         <v>-11.938552663550199</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -30052,7 +30046,7 @@
         <v>-11.5110016874215</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -30099,7 +30093,7 @@
         <v>-11.769926279760901</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -30146,7 +30140,7 @@
         <v>-11.9200218798374</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -30193,7 +30187,7 @@
         <v>-11.9597090747591</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -30240,7 +30234,7 @@
         <v>-11.9957981583009</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -30287,7 +30281,7 @@
         <v>-12.0238153057165</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -30334,7 +30328,7 @@
         <v>-12.058279572427599</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -30381,7 +30375,7 @@
         <v>-12.0408777638069</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -30428,7 +30422,7 @@
         <v>-12.024477595483001</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -30475,7 +30469,7 @@
         <v>-12.0231028766378</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -30522,7 +30516,7 @@
         <v>-11.4572595406324</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -30569,7 +30563,7 @@
         <v>-11.774530693310201</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -30616,7 +30610,7 @@
         <v>-11.926253233891501</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -30663,7 +30657,7 @@
         <v>-11.956993356566599</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -30710,7 +30704,7 @@
         <v>-12.0112577642197</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -30757,7 +30751,7 @@
         <v>-12.1014617833325</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -30804,7 +30798,7 @@
         <v>-12.161199070349801</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -30851,7 +30845,7 @@
         <v>-12.148880880498799</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -30898,7 +30892,7 @@
         <v>-12.088133796455301</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -30945,7 +30939,7 @@
         <v>-12.0847821511075</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -30992,7 +30986,7 @@
         <v>-11.5144190245306</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -31039,7 +31033,7 @@
         <v>-11.8865136095389</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -31086,7 +31080,7 @@
         <v>-12.002685450331599</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -31133,7 +31127,7 @@
         <v>-12.1344735492528</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -31180,7 +31174,7 @@
         <v>-12.184487969244801</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -31227,7 +31221,7 @@
         <v>-12.2353619037697</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -31274,7 +31268,7 @@
         <v>-12.322814904160699</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -31321,7 +31315,7 @@
         <v>-12.2885157813415</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
         <v>22</v>
       </c>
@@ -31368,7 +31362,7 @@
         <v>-12.2135328951624</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -31415,7 +31409,7 @@
         <v>-12.204570592968601</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -31495,7 +31489,7 @@
         <v>3244.2</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -31539,7 +31533,7 @@
         <v>-12.467159895007301</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -31583,7 +31577,7 @@
         <v>-12.402731415653699</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -31627,7 +31621,7 @@
         <v>-12.4869916583107</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -31671,7 +31665,7 @@
         <v>-12.5198965983965</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -31739,7 +31733,7 @@
         <v>2636.2</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -31771,7 +31765,7 @@
         <v>-9.7702550051260193</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -31803,7 +31797,7 @@
         <v>-9.6845272733858003</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -31835,7 +31829,7 @@
         <v>-9.76903803847825</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -31867,7 +31861,7 @@
         <v>-9.7652625002214304</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -31950,7 +31944,7 @@
         <v>106260.4</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -31997,7 +31991,7 @@
         <v>-11.8928304900396</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -32044,7 +32038,7 @@
         <v>-12.097000226872</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -32091,7 +32085,7 @@
         <v>-12.2174882386626</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -32138,7 +32132,7 @@
         <v>-12.3435110206501</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -32185,7 +32179,7 @@
         <v>-12.390631955265899</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -32232,7 +32226,7 @@
         <v>-12.474356814594399</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -32279,7 +32273,7 @@
         <v>-12.5151824542715</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -32326,7 +32320,7 @@
         <v>-12.569011782919601</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -32373,7 +32367,7 @@
         <v>-12.534822754615099</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -32420,7 +32414,7 @@
         <v>-11.3990591697093</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -32467,7 +32461,7 @@
         <v>-11.8505855833842</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -32514,7 +32508,7 @@
         <v>-12.102858858901801</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -32561,7 +32555,7 @@
         <v>-12.2081684584937</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -32608,7 +32602,7 @@
         <v>-12.290344974853801</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -32655,7 +32649,7 @@
         <v>-12.3813159717554</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -32702,7 +32696,7 @@
         <v>-12.424139182648901</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -32749,7 +32743,7 @@
         <v>-12.432744021596699</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -32796,7 +32790,7 @@
         <v>-12.469142371815501</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -32843,7 +32837,7 @@
         <v>-12.4744889191185</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -32890,7 +32884,7 @@
         <v>-11.362959164307201</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -32937,7 +32931,7 @@
         <v>-11.850358617636401</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -32984,7 +32978,7 @@
         <v>-12.0584695407561</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -33031,7 +33025,7 @@
         <v>-12.258056272650601</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -33078,7 +33072,7 @@
         <v>-12.335354293153699</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -33125,7 +33119,7 @@
         <v>-12.3742208152616</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -33172,7 +33166,7 @@
         <v>-12.462831093269401</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -33219,7 +33213,7 @@
         <v>-12.492069525808899</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -33266,7 +33260,7 @@
         <v>-12.565215997801999</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -33313,7 +33307,7 @@
         <v>-12.610014442611</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -33360,7 +33354,7 @@
         <v>-11.4222522392317</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -33407,7 +33401,7 @@
         <v>-11.9693678531673</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -33454,7 +33448,7 @@
         <v>-12.189730165500899</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -33501,7 +33495,7 @@
         <v>-12.309055107313799</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -33548,7 +33542,7 @@
         <v>-12.387471845847299</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -33595,7 +33589,7 @@
         <v>-12.440088704347801</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -33642,7 +33636,7 @@
         <v>-12.490755320200501</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -33689,7 +33683,7 @@
         <v>-12.5222242325362</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -33736,7 +33730,7 @@
         <v>-12.5976649430098</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -33783,7 +33777,7 @@
         <v>-12.613720173534199</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -33830,7 +33824,7 @@
         <v>-11.5826564894707</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -33877,7 +33871,7 @@
         <v>-12.0123896658242</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -33924,7 +33918,7 @@
         <v>-12.2407585021865</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
         <v>24</v>
       </c>
@@ -33971,7 +33965,7 @@
         <v>-12.4113445709802</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -34018,7 +34012,7 @@
         <v>-12.511173464829399</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -34065,7 +34059,7 @@
         <v>-12.5569390901804</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -34112,7 +34106,7 @@
         <v>-12.6071245777458</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -34159,7 +34153,7 @@
         <v>-12.6341422079963</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -34206,7 +34200,7 @@
         <v>-12.671115972866099</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -34253,7 +34247,7 @@
         <v>-12.707252428293399</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -34336,7 +34330,7 @@
         <v>98158.599999999991</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -34383,7 +34377,7 @@
         <v>-11.8748291719706</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -34430,7 +34424,7 @@
         <v>-12.033320873267799</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -34477,7 +34471,7 @@
         <v>-12.1411868427115</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
         <v>23</v>
       </c>
@@ -34524,7 +34518,7 @@
         <v>-12.177528524902799</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -34571,7 +34565,7 @@
         <v>-12.190385902709099</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -34618,7 +34612,7 @@
         <v>-12.2793588512036</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179" t="s">
         <v>23</v>
       </c>
@@ -34665,7 +34659,7 @@
         <v>-12.337434513472701</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -34712,7 +34706,7 @@
         <v>-12.3725062049594</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -34759,7 +34753,7 @@
         <v>-12.427438485029599</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -34806,7 +34800,7 @@
         <v>-11.5094226768755</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -34853,7 +34847,7 @@
         <v>-11.8379285191577</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -34900,7 +34894,7 @@
         <v>-11.9828177922747</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -34947,7 +34941,7 @@
         <v>-12.0596704169793</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -34994,7 +34988,7 @@
         <v>-12.1210278913611</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -35041,7 +35035,7 @@
         <v>-12.1598208275225</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -35088,7 +35082,7 @@
         <v>-12.2290958279359</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -35135,7 +35129,7 @@
         <v>-12.262419236981501</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -35182,7 +35176,7 @@
         <v>-12.3427440402697</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -35229,7 +35223,7 @@
         <v>-12.3803930846481</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -35276,7 +35270,7 @@
         <v>-11.5550588374358</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -35323,7 +35317,7 @@
         <v>-11.882872577977899</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -35370,7 +35364,7 @@
         <v>-12.0043938371581</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -35417,7 +35411,7 @@
         <v>-12.125441587594899</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -35464,7 +35458,7 @@
         <v>-12.185064785187</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -35511,7 +35505,7 @@
         <v>-12.2185623638181</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -35558,7 +35552,7 @@
         <v>-12.2937428035272</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -35605,7 +35599,7 @@
         <v>-12.3260562367548</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -35652,7 +35646,7 @@
         <v>-12.401607770998</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15">
       <c r="A201" t="s">
         <v>23</v>
       </c>
@@ -35699,7 +35693,7 @@
         <v>-12.4445491412239</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -35746,7 +35740,7 @@
         <v>-11.5806467485666</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -35793,7 +35787,7 @@
         <v>-11.948497475645199</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -35840,7 +35834,7 @@
         <v>-12.0930046924483</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -35887,7 +35881,7 @@
         <v>-12.160866451306701</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -35934,7 +35928,7 @@
         <v>-12.270547470894501</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -35981,7 +35975,7 @@
         <v>-12.310123144394501</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -36028,7 +36022,7 @@
         <v>-12.383560868086599</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -36075,7 +36069,7 @@
         <v>-12.4215862090645</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -36122,7 +36116,7 @@
         <v>-12.506231746653301</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -36169,7 +36163,7 @@
         <v>-12.552845061256599</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -36216,7 +36210,7 @@
         <v>-11.6173675325525</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -36263,7 +36257,7 @@
         <v>-11.946235251582801</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -36310,7 +36304,7 @@
         <v>-12.1678661975961</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -36357,7 +36351,7 @@
         <v>-12.235427055302001</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -36404,7 +36398,7 @@
         <v>-12.3136082195731</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -36451,7 +36445,7 @@
         <v>-12.349784009883599</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -36498,7 +36492,7 @@
         <v>-12.422933749987401</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -36545,7 +36539,7 @@
         <v>-12.469329187848601</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -36592,7 +36586,7 @@
         <v>-12.536294526728801</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -36639,7 +36633,7 @@
         <v>-12.595445121125501</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
         <v>25</v>
       </c>
@@ -36722,7 +36716,7 @@
         <v>113619</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
         <v>25</v>
       </c>
@@ -36769,7 +36763,7 @@
         <v>-11.796431281183001</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
         <v>25</v>
       </c>
@@ -36816,7 +36810,7 @@
         <v>-12.007440379614501</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -36863,7 +36857,7 @@
         <v>-12.1921893853866</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -36910,7 +36904,7 @@
         <v>-12.299934827507601</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -36957,7 +36951,7 @@
         <v>-12.329721989922399</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15">
       <c r="A228" t="s">
         <v>25</v>
       </c>
@@ -37004,7 +36998,7 @@
         <v>-12.4206294703301</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -37051,7 +37045,7 @@
         <v>-12.4652981517205</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -37098,7 +37092,7 @@
         <v>-12.5706710293941</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -37145,7 +37139,7 @@
         <v>-12.5695768227315</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -37192,7 +37186,7 @@
         <v>-11.2135827620945</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -37239,7 +37233,7 @@
         <v>-11.672969721966901</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -37286,7 +37280,7 @@
         <v>-11.948645013222</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -37333,7 +37327,7 @@
         <v>-12.121980678227599</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -37380,7 +37374,7 @@
         <v>-12.2076004272737</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -37427,7 +37421,7 @@
         <v>-12.2712201320007</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15">
       <c r="A238" t="s">
         <v>25</v>
       </c>
@@ -37474,7 +37468,7 @@
         <v>-12.334435881796001</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -37521,7 +37515,7 @@
         <v>-12.392803902061299</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -37568,7 +37562,7 @@
         <v>-12.4702440934556</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15">
       <c r="A241" t="s">
         <v>25</v>
       </c>
@@ -37615,7 +37609,7 @@
         <v>-12.5002680106799</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15">
       <c r="A242" t="s">
         <v>25</v>
       </c>
@@ -37662,7 +37656,7 @@
         <v>-11.224507160790701</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -37709,7 +37703,7 @@
         <v>-11.639985600895701</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15">
       <c r="A244" t="s">
         <v>25</v>
       </c>
@@ -37756,7 +37750,7 @@
         <v>-11.942298389050499</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15">
       <c r="A245" t="s">
         <v>25</v>
       </c>
@@ -37803,7 +37797,7 @@
         <v>-12.186046606540801</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15">
       <c r="A246" t="s">
         <v>25</v>
       </c>
@@ -37850,7 +37844,7 @@
         <v>-12.248099184589</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15">
       <c r="A247" t="s">
         <v>25</v>
       </c>
@@ -37897,7 +37891,7 @@
         <v>-12.334358727274999</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15">
       <c r="A248" t="s">
         <v>25</v>
       </c>
@@ -37944,7 +37938,7 @@
         <v>-12.4057498109118</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15">
       <c r="A249" t="s">
         <v>25</v>
       </c>
@@ -37991,7 +37985,7 @@
         <v>-12.4661092748955</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15">
       <c r="A250" t="s">
         <v>25</v>
       </c>
@@ -38038,7 +38032,7 @@
         <v>-12.573057812049599</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15">
       <c r="A251" t="s">
         <v>25</v>
       </c>
@@ -38085,7 +38079,7 @@
         <v>-12.6065443503041</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15">
       <c r="A252" t="s">
         <v>25</v>
       </c>
@@ -38132,7 +38126,7 @@
         <v>-11.3488667160345</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15">
       <c r="A253" t="s">
         <v>25</v>
       </c>
@@ -38179,7 +38173,7 @@
         <v>-11.8250815792265</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15">
       <c r="A254" t="s">
         <v>25</v>
       </c>
@@ -38226,7 +38220,7 @@
         <v>-12.081970696507</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15">
       <c r="A255" t="s">
         <v>25</v>
       </c>
@@ -38273,7 +38267,7 @@
         <v>-12.2110930604267</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15">
       <c r="A256" t="s">
         <v>25</v>
       </c>
@@ -38320,7 +38314,7 @@
         <v>-12.27615403341</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15">
       <c r="A257" t="s">
         <v>25</v>
       </c>
@@ -38367,7 +38361,7 @@
         <v>-12.374225139858201</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15">
       <c r="A258" t="s">
         <v>25</v>
       </c>
@@ -38414,7 +38408,7 @@
         <v>-12.4828047363309</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15">
       <c r="A259" t="s">
         <v>25</v>
       </c>
@@ -38461,7 +38455,7 @@
         <v>-12.5523403251579</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15">
       <c r="A260" t="s">
         <v>25</v>
       </c>
@@ -38508,7 +38502,7 @@
         <v>-12.6269349389048</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15">
       <c r="A261" t="s">
         <v>25</v>
       </c>
@@ -38555,7 +38549,7 @@
         <v>-12.655011683366499</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15">
       <c r="A262" t="s">
         <v>25</v>
       </c>
@@ -38602,7 +38596,7 @@
         <v>-11.375291728229801</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -38649,7 +38643,7 @@
         <v>-11.823404781351901</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -38696,7 +38690,7 @@
         <v>-12.089816062074499</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15">
       <c r="A265" t="s">
         <v>25</v>
       </c>
@@ -38743,7 +38737,7 @@
         <v>-12.2186205683354</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15">
       <c r="A266" t="s">
         <v>25</v>
       </c>
@@ -38790,7 +38784,7 @@
         <v>-12.378784551925699</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -38837,7 +38831,7 @@
         <v>-12.4597049725479</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15">
       <c r="A268" t="s">
         <v>25</v>
       </c>
@@ -38884,7 +38878,7 @@
         <v>-12.517151879551401</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15">
       <c r="A269" t="s">
         <v>25</v>
       </c>
@@ -38931,7 +38925,7 @@
         <v>-12.57737246228</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15">
       <c r="A270" t="s">
         <v>25</v>
       </c>
@@ -38978,7 +38972,7 @@
         <v>-12.646265340468201</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15">
       <c r="A271" t="s">
         <v>25</v>
       </c>
@@ -39025,7 +39019,7 @@
         <v>-12.708479950639701</v>
       </c>
     </row>
-    <row r="276" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="276" spans="14:22">
       <c r="P276" t="s">
         <v>9</v>
       </c>
@@ -39045,7 +39039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="277" spans="14:22">
       <c r="N277" t="s">
         <v>24</v>
       </c>
@@ -39071,7 +39065,7 @@
         <v>106235.4</v>
       </c>
     </row>
-    <row r="278" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="278" spans="14:22">
       <c r="N278" t="s">
         <v>23</v>
       </c>
@@ -39097,7 +39091,7 @@
         <v>98141.4</v>
       </c>
     </row>
-    <row r="279" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="279" spans="14:22">
       <c r="N279" t="s">
         <v>25</v>
       </c>
@@ -39129,16 +39123,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -39167,7 +39161,7 @@
         <v>0.478929307522304</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -39196,7 +39190,7 @@
         <v>0.477489882531691</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -39225,7 +39219,7 @@
         <v>0.462506618251666</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -39254,7 +39248,7 @@
         <v>0.47442734617834098</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -39283,7 +39277,7 @@
         <v>0.479044713865241</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="N6">
         <f>SUM(N1:N5)/5</f>
         <v>0.47447957366984861</v>
